--- a/formato7a_directiva001_2019EF6301-CHALHUANCA al 11 mayo.xlsx
+++ b/formato7a_directiva001_2019EF6301-CHALHUANCA al 11 mayo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GORE 2020\3. Evaluaciones\PIP ECOSISTEMAS AYMARAES 14 FEB 2020\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEL\Documents\RepositorioORFEI\Proyecto-011\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CA08DA-EEA7-424F-9A65-8A51C56DDA52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED26A4BA-3093-4AEA-A90B-ACD993807F19}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20745" yWindow="0" windowWidth="17190" windowHeight="20205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20748" yWindow="0" windowWidth="17196" windowHeight="20208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato 01 F&amp;E" sheetId="1" r:id="rId1"/>
@@ -1808,7 +1808,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1902,6 +1902,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2385,7 +2391,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="595">
+  <cellXfs count="596">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3516,107 +3522,81 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3627,50 +3607,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3678,49 +3661,91 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3729,11 +3754,20 @@
     <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3810,217 +3844,192 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -4685,93 +4694,93 @@
   </sheetPr>
   <dimension ref="A1:P495"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A180" zoomScale="70" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C364" sqref="C364:J364"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" style="364" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="29.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="30.44140625" style="364" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="29.6640625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G1" s="498"/>
-      <c r="H1" s="498"/>
-      <c r="I1" s="498"/>
-      <c r="J1" s="498"/>
-      <c r="K1" s="498"/>
-    </row>
-    <row r="3" spans="2:11" s="145" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="499" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G1" s="508"/>
+      <c r="H1" s="508"/>
+      <c r="I1" s="508"/>
+      <c r="J1" s="508"/>
+      <c r="K1" s="508"/>
+    </row>
+    <row r="3" spans="2:11" s="145" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B3" s="509" t="s">
         <v>269</v>
       </c>
-      <c r="C3" s="500"/>
-      <c r="D3" s="501"/>
-      <c r="E3" s="501"/>
-      <c r="F3" s="501"/>
-      <c r="G3" s="501"/>
-      <c r="H3" s="501"/>
-      <c r="I3" s="501"/>
-      <c r="J3" s="501"/>
-      <c r="K3" s="502"/>
-    </row>
-    <row r="4" spans="2:11" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="503" t="s">
+      <c r="C3" s="510"/>
+      <c r="D3" s="511"/>
+      <c r="E3" s="511"/>
+      <c r="F3" s="511"/>
+      <c r="G3" s="511"/>
+      <c r="H3" s="511"/>
+      <c r="I3" s="511"/>
+      <c r="J3" s="511"/>
+      <c r="K3" s="512"/>
+    </row>
+    <row r="4" spans="2:11" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="513" t="s">
         <v>274</v>
       </c>
-      <c r="C4" s="504"/>
-      <c r="D4" s="505"/>
-      <c r="E4" s="505"/>
-      <c r="F4" s="505"/>
-      <c r="G4" s="505"/>
-      <c r="H4" s="505"/>
-      <c r="I4" s="505"/>
-      <c r="J4" s="505"/>
-      <c r="K4" s="506"/>
-    </row>
-    <row r="5" spans="2:11" s="129" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="507"/>
-      <c r="C5" s="508"/>
-      <c r="D5" s="509"/>
-      <c r="E5" s="509"/>
-      <c r="F5" s="509"/>
-      <c r="G5" s="509"/>
-      <c r="H5" s="509"/>
-      <c r="I5" s="509"/>
-      <c r="J5" s="509"/>
-      <c r="K5" s="510"/>
-    </row>
-    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="511" t="s">
+      <c r="C4" s="514"/>
+      <c r="D4" s="515"/>
+      <c r="E4" s="515"/>
+      <c r="F4" s="515"/>
+      <c r="G4" s="515"/>
+      <c r="H4" s="515"/>
+      <c r="I4" s="515"/>
+      <c r="J4" s="515"/>
+      <c r="K4" s="516"/>
+    </row>
+    <row r="5" spans="2:11" s="129" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="517"/>
+      <c r="C5" s="518"/>
+      <c r="D5" s="519"/>
+      <c r="E5" s="519"/>
+      <c r="F5" s="519"/>
+      <c r="G5" s="519"/>
+      <c r="H5" s="519"/>
+      <c r="I5" s="519"/>
+      <c r="J5" s="519"/>
+      <c r="K5" s="520"/>
+    </row>
+    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="521" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="511"/>
-      <c r="D6" s="512"/>
-      <c r="E6" s="512"/>
-      <c r="F6" s="512"/>
-      <c r="G6" s="512"/>
-      <c r="H6" s="512"/>
-      <c r="I6" s="512"/>
-      <c r="J6" s="512"/>
-      <c r="K6" s="512"/>
-    </row>
-    <row r="7" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="521"/>
+      <c r="D6" s="522"/>
+      <c r="E6" s="522"/>
+      <c r="F6" s="522"/>
+      <c r="G6" s="522"/>
+      <c r="H6" s="522"/>
+      <c r="I6" s="522"/>
+      <c r="J6" s="522"/>
+      <c r="K6" s="522"/>
+    </row>
+    <row r="7" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4783,7 +4792,7 @@
       <c r="J7" s="362"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4795,7 +4804,7 @@
       <c r="J8" s="362"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
         <v>0</v>
@@ -4809,24 +4818,24 @@
       <c r="J9" s="363"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="2:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
-      <c r="C11" s="515" t="s">
+      <c r="C11" s="525" t="s">
         <v>288</v>
       </c>
-      <c r="D11" s="516"/>
-      <c r="E11" s="516"/>
-      <c r="F11" s="516"/>
-      <c r="G11" s="516"/>
-      <c r="H11" s="516"/>
-      <c r="I11" s="516"/>
-      <c r="J11" s="516"/>
-      <c r="K11" s="517"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D11" s="526"/>
+      <c r="E11" s="526"/>
+      <c r="F11" s="526"/>
+      <c r="G11" s="526"/>
+      <c r="H11" s="526"/>
+      <c r="I11" s="526"/>
+      <c r="J11" s="526"/>
+      <c r="K11" s="527"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4838,7 +4847,7 @@
       <c r="J12" s="362"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="8" t="s">
         <v>1</v>
@@ -4851,7 +4860,7 @@
       <c r="J13" s="362"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4863,7 +4872,7 @@
       <c r="J14" s="362"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -4874,7 +4883,7 @@
       <c r="J15" s="362"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -4882,12 +4891,12 @@
       <c r="J16" s="362"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="148" t="s">
+      <c r="E17" s="595" t="s">
         <v>281</v>
       </c>
       <c r="G17" s="2"/>
@@ -4896,7 +4905,7 @@
       <c r="J17" s="362"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="10" t="s">
         <v>4</v>
@@ -4908,7 +4917,7 @@
       <c r="J18" s="362"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="10"/>
       <c r="E19" s="13"/>
@@ -4918,7 +4927,7 @@
       <c r="J19" s="362"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="C20" s="14" t="s">
         <v>5</v>
@@ -4930,7 +4939,7 @@
       <c r="J20" s="362"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -4938,7 +4947,7 @@
       <c r="J21" s="362"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -4950,7 +4959,7 @@
       <c r="J22" s="362"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="16" t="s">
         <v>6</v>
       </c>
@@ -4964,7 +4973,7 @@
       <c r="J23" s="365"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4976,7 +4985,7 @@
       <c r="J24" s="362"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="18" t="s">
         <v>7</v>
@@ -4992,7 +5001,7 @@
       <c r="J25" s="362"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
       <c r="C26" s="18"/>
       <c r="D26" s="2"/>
@@ -5004,7 +5013,7 @@
       <c r="J26" s="362"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
       <c r="C27" s="18" t="s">
         <v>8</v>
@@ -5020,7 +5029,7 @@
       <c r="J27" s="362"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
       <c r="C28" s="18"/>
       <c r="D28" s="2"/>
@@ -5032,7 +5041,7 @@
       <c r="J28" s="362"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
       <c r="C29" s="18" t="s">
         <v>9</v>
@@ -5048,7 +5057,7 @@
       <c r="J29" s="362"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -5060,7 +5069,7 @@
       <c r="J30" s="362"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
       <c r="C31" s="18" t="s">
         <v>10</v>
@@ -5076,7 +5085,7 @@
       <c r="J31" s="362"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5088,7 +5097,7 @@
       <c r="J32" s="362"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -5100,25 +5109,25 @@
       <c r="J33" s="362"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
-      <c r="C34" s="513" t="s">
+      <c r="C34" s="523" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="513"/>
-      <c r="E34" s="514"/>
-      <c r="F34" s="518" t="s">
+      <c r="D34" s="523"/>
+      <c r="E34" s="524"/>
+      <c r="F34" s="528" t="s">
         <v>286</v>
       </c>
-      <c r="G34" s="519"/>
-      <c r="H34" s="519"/>
-      <c r="I34" s="519"/>
-      <c r="J34" s="520"/>
+      <c r="G34" s="529"/>
+      <c r="H34" s="529"/>
+      <c r="I34" s="529"/>
+      <c r="J34" s="530"/>
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
     </row>
-    <row r="35" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
       <c r="D35" s="20"/>
@@ -5132,27 +5141,27 @@
       <c r="L35" s="26"/>
       <c r="M35" s="26"/>
     </row>
-    <row r="36" spans="2:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="27"/>
-      <c r="C36" s="497" t="s">
+      <c r="C36" s="507" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="497"/>
-      <c r="E36" s="497"/>
+      <c r="D36" s="507"/>
+      <c r="E36" s="507"/>
       <c r="F36" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="521" t="s">
+      <c r="G36" s="531" t="s">
         <v>287</v>
       </c>
-      <c r="H36" s="522"/>
-      <c r="I36" s="522"/>
-      <c r="J36" s="523"/>
+      <c r="H36" s="532"/>
+      <c r="I36" s="532"/>
+      <c r="J36" s="533"/>
       <c r="K36" s="28"/>
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
     </row>
-    <row r="37" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="27"/>
       <c r="C37" s="19"/>
       <c r="D37" s="20"/>
@@ -5166,13 +5175,13 @@
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
     </row>
-    <row r="38" spans="2:13" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="27"/>
-      <c r="C38" s="572" t="s">
+      <c r="C38" s="426" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="572"/>
-      <c r="E38" s="573"/>
+      <c r="D38" s="426"/>
+      <c r="E38" s="427"/>
       <c r="F38" s="132" t="s">
         <v>15</v>
       </c>
@@ -5196,7 +5205,7 @@
       </c>
       <c r="M38" s="136"/>
     </row>
-    <row r="39" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="27"/>
       <c r="C39" s="23"/>
       <c r="D39" s="20"/>
@@ -5210,7 +5219,7 @@
       <c r="L39" s="26"/>
       <c r="M39" s="26"/>
     </row>
-    <row r="40" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="27"/>
       <c r="C40" s="19" t="s">
         <v>19</v>
@@ -5230,7 +5239,7 @@
       <c r="L40" s="29"/>
       <c r="M40" s="29"/>
     </row>
-    <row r="41" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="27"/>
       <c r="C41" s="23" t="s">
         <v>20</v>
@@ -5246,7 +5255,7 @@
       <c r="L41" s="26"/>
       <c r="M41" s="26"/>
     </row>
-    <row r="42" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B42" s="30"/>
       <c r="C42" s="23"/>
       <c r="D42" s="20"/>
@@ -5260,7 +5269,7 @@
       <c r="L42" s="26"/>
       <c r="M42" s="26"/>
     </row>
-    <row r="43" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="30"/>
       <c r="C43" s="19" t="s">
         <v>21</v>
@@ -5278,7 +5287,7 @@
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
     </row>
-    <row r="44" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B44" s="30"/>
       <c r="C44" s="32"/>
       <c r="D44" s="33"/>
@@ -5289,7 +5298,7 @@
       <c r="I44" s="34"/>
       <c r="J44" s="370"/>
     </row>
-    <row r="45" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B45" s="30"/>
       <c r="C45" s="35" t="s">
         <v>14</v>
@@ -5302,7 +5311,7 @@
       <c r="I45" s="34"/>
       <c r="J45" s="370"/>
     </row>
-    <row r="46" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B46" s="30"/>
       <c r="C46" s="32"/>
       <c r="D46" s="36"/>
@@ -5314,7 +5323,7 @@
       <c r="J46" s="370"/>
       <c r="K46" s="34"/>
     </row>
-    <row r="47" spans="2:13" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="16" t="s">
         <v>22</v>
       </c>
@@ -5328,7 +5337,7 @@
       <c r="J47" s="365"/>
       <c r="K47" s="17"/>
     </row>
-    <row r="48" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="36"/>
@@ -5340,7 +5349,7 @@
       <c r="J48" s="371"/>
       <c r="K48" s="36"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B49" s="37">
         <v>1</v>
       </c>
@@ -5352,7 +5361,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B50" s="22"/>
       <c r="C50" s="38" t="s">
         <v>24</v>
@@ -5360,15 +5369,15 @@
       <c r="D50" s="39"/>
       <c r="E50" s="39"/>
       <c r="F50" s="39"/>
-      <c r="G50" s="525" t="s">
+      <c r="G50" s="502" t="s">
         <v>292</v>
       </c>
-      <c r="H50" s="525"/>
-      <c r="I50" s="525"/>
-      <c r="J50" s="525"/>
-      <c r="K50" s="525"/>
-    </row>
-    <row r="51" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H50" s="502"/>
+      <c r="I50" s="502"/>
+      <c r="J50" s="502"/>
+      <c r="K50" s="502"/>
+    </row>
+    <row r="51" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51" s="22"/>
       <c r="C51" s="38" t="s">
         <v>25</v>
@@ -5376,54 +5385,54 @@
       <c r="D51" s="39"/>
       <c r="E51" s="39"/>
       <c r="F51" s="39"/>
-      <c r="G51" s="525" t="s">
+      <c r="G51" s="502" t="s">
         <v>293</v>
       </c>
-      <c r="H51" s="525"/>
-      <c r="I51" s="525"/>
-      <c r="J51" s="525"/>
-      <c r="K51" s="525"/>
-    </row>
-    <row r="52" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H51" s="502"/>
+      <c r="I51" s="502"/>
+      <c r="J51" s="502"/>
+      <c r="K51" s="502"/>
+    </row>
+    <row r="52" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B52" s="22"/>
-      <c r="C52" s="524" t="s">
+      <c r="C52" s="483" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="524"/>
-      <c r="E52" s="524"/>
-      <c r="F52" s="524"/>
-      <c r="G52" s="526" t="s">
+      <c r="D52" s="483"/>
+      <c r="E52" s="483"/>
+      <c r="F52" s="483"/>
+      <c r="G52" s="452" t="s">
         <v>294</v>
       </c>
-      <c r="H52" s="527"/>
-      <c r="I52" s="527"/>
-      <c r="J52" s="527"/>
-      <c r="K52" s="528"/>
-    </row>
-    <row r="53" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H52" s="503"/>
+      <c r="I52" s="503"/>
+      <c r="J52" s="503"/>
+      <c r="K52" s="453"/>
+    </row>
+    <row r="53" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B53" s="22"/>
-      <c r="C53" s="524" t="s">
+      <c r="C53" s="483" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="524"/>
-      <c r="E53" s="524"/>
-      <c r="F53" s="524"/>
-      <c r="G53" s="526" t="s">
+      <c r="D53" s="483"/>
+      <c r="E53" s="483"/>
+      <c r="F53" s="483"/>
+      <c r="G53" s="452" t="s">
         <v>299</v>
       </c>
-      <c r="H53" s="527"/>
-      <c r="I53" s="527"/>
-      <c r="J53" s="527"/>
-      <c r="K53" s="528"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H53" s="503"/>
+      <c r="I53" s="503"/>
+      <c r="J53" s="503"/>
+      <c r="K53" s="453"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
       <c r="D55" s="36"/>
@@ -5435,7 +5444,7 @@
       <c r="J55" s="372"/>
       <c r="K55" s="41"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B56" s="37">
         <v>2</v>
       </c>
@@ -5446,7 +5455,7 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
     </row>
-    <row r="57" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B57" s="22"/>
       <c r="C57" s="38" t="s">
         <v>29</v>
@@ -5454,15 +5463,15 @@
       <c r="D57" s="39"/>
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
-      <c r="G57" s="525" t="s">
+      <c r="G57" s="502" t="s">
         <v>292</v>
       </c>
-      <c r="H57" s="525"/>
-      <c r="I57" s="525"/>
-      <c r="J57" s="525"/>
-      <c r="K57" s="525"/>
-    </row>
-    <row r="58" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H57" s="502"/>
+      <c r="I57" s="502"/>
+      <c r="J57" s="502"/>
+      <c r="K57" s="502"/>
+    </row>
+    <row r="58" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B58" s="22"/>
       <c r="C58" s="38" t="s">
         <v>30</v>
@@ -5470,61 +5479,61 @@
       <c r="D58" s="39"/>
       <c r="E58" s="39"/>
       <c r="F58" s="39"/>
-      <c r="G58" s="525" t="s">
+      <c r="G58" s="502" t="s">
         <v>293</v>
       </c>
-      <c r="H58" s="525"/>
-      <c r="I58" s="525"/>
-      <c r="J58" s="525"/>
-      <c r="K58" s="525"/>
-    </row>
-    <row r="59" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H58" s="502"/>
+      <c r="I58" s="502"/>
+      <c r="J58" s="502"/>
+      <c r="K58" s="502"/>
+    </row>
+    <row r="59" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B59" s="22"/>
-      <c r="C59" s="524" t="s">
+      <c r="C59" s="483" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="524"/>
-      <c r="E59" s="524"/>
-      <c r="F59" s="524"/>
-      <c r="G59" s="526" t="s">
+      <c r="D59" s="483"/>
+      <c r="E59" s="483"/>
+      <c r="F59" s="483"/>
+      <c r="G59" s="452" t="s">
         <v>295</v>
       </c>
-      <c r="H59" s="527"/>
-      <c r="I59" s="527"/>
-      <c r="J59" s="527"/>
-      <c r="K59" s="528"/>
-    </row>
-    <row r="60" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H59" s="503"/>
+      <c r="I59" s="503"/>
+      <c r="J59" s="503"/>
+      <c r="K59" s="453"/>
+    </row>
+    <row r="60" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B60" s="22"/>
-      <c r="C60" s="524" t="s">
+      <c r="C60" s="483" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="524"/>
-      <c r="E60" s="524"/>
-      <c r="F60" s="524"/>
-      <c r="G60" s="526" t="s">
+      <c r="D60" s="483"/>
+      <c r="E60" s="483"/>
+      <c r="F60" s="483"/>
+      <c r="G60" s="452" t="s">
         <v>296</v>
       </c>
-      <c r="H60" s="527"/>
-      <c r="I60" s="527"/>
-      <c r="J60" s="527"/>
-      <c r="K60" s="528"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H60" s="503"/>
+      <c r="I60" s="503"/>
+      <c r="J60" s="503"/>
+      <c r="K60" s="453"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B63" s="37">
         <v>3</v>
       </c>
@@ -5535,7 +5544,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
     </row>
-    <row r="64" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="22"/>
       <c r="C64" s="38" t="s">
         <v>24</v>
@@ -5543,15 +5552,15 @@
       <c r="D64" s="39"/>
       <c r="E64" s="39"/>
       <c r="F64" s="39"/>
-      <c r="G64" s="525" t="s">
+      <c r="G64" s="502" t="s">
         <v>292</v>
       </c>
-      <c r="H64" s="525"/>
-      <c r="I64" s="525"/>
-      <c r="J64" s="525"/>
-      <c r="K64" s="525"/>
-    </row>
-    <row r="65" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H64" s="502"/>
+      <c r="I64" s="502"/>
+      <c r="J64" s="502"/>
+      <c r="K64" s="502"/>
+    </row>
+    <row r="65" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B65" s="22"/>
       <c r="C65" s="38" t="s">
         <v>25</v>
@@ -5559,22 +5568,22 @@
       <c r="D65" s="39"/>
       <c r="E65" s="39"/>
       <c r="F65" s="39"/>
-      <c r="G65" s="525" t="s">
+      <c r="G65" s="502" t="s">
         <v>293</v>
       </c>
-      <c r="H65" s="525"/>
-      <c r="I65" s="525"/>
-      <c r="J65" s="525"/>
-      <c r="K65" s="525"/>
-    </row>
-    <row r="66" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H65" s="502"/>
+      <c r="I65" s="502"/>
+      <c r="J65" s="502"/>
+      <c r="K65" s="502"/>
+    </row>
+    <row r="66" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B66" s="22"/>
-      <c r="C66" s="524" t="s">
+      <c r="C66" s="483" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="524"/>
-      <c r="E66" s="524"/>
-      <c r="F66" s="524"/>
+      <c r="D66" s="483"/>
+      <c r="E66" s="483"/>
+      <c r="F66" s="483"/>
       <c r="G66" s="5" t="s">
         <v>297</v>
       </c>
@@ -5583,14 +5592,14 @@
       <c r="J66" s="373"/>
       <c r="K66" s="7"/>
     </row>
-    <row r="67" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B67" s="22"/>
-      <c r="C67" s="524" t="s">
+      <c r="C67" s="483" t="s">
         <v>35</v>
       </c>
-      <c r="D67" s="524"/>
-      <c r="E67" s="524"/>
-      <c r="F67" s="524"/>
+      <c r="D67" s="483"/>
+      <c r="E67" s="483"/>
+      <c r="F67" s="483"/>
       <c r="G67" s="5" t="s">
         <v>298</v>
       </c>
@@ -5599,7 +5608,7 @@
       <c r="J67" s="373"/>
       <c r="K67" s="7"/>
     </row>
-    <row r="68" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
       <c r="D68" s="36"/>
@@ -5611,7 +5620,7 @@
       <c r="J68" s="372"/>
       <c r="K68" s="41"/>
     </row>
-    <row r="69" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B69" s="42"/>
       <c r="C69" s="42"/>
       <c r="D69" s="36"/>
@@ -5623,7 +5632,7 @@
       <c r="J69" s="372"/>
       <c r="K69" s="41"/>
     </row>
-    <row r="70" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B70" s="37">
         <v>4</v>
       </c>
@@ -5639,14 +5648,14 @@
       <c r="J70" s="364"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B71" s="22"/>
-      <c r="C71" s="524" t="s">
+      <c r="C71" s="483" t="s">
         <v>37</v>
       </c>
-      <c r="D71" s="524"/>
-      <c r="E71" s="524"/>
-      <c r="F71" s="524"/>
+      <c r="D71" s="483"/>
+      <c r="E71" s="483"/>
+      <c r="F71" s="483"/>
       <c r="G71" s="5" t="s">
         <v>300</v>
       </c>
@@ -5655,7 +5664,7 @@
       <c r="J71" s="373"/>
       <c r="K71" s="7"/>
     </row>
-    <row r="72" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B72" s="42"/>
       <c r="C72" s="42"/>
       <c r="D72" s="36"/>
@@ -5667,7 +5676,7 @@
       <c r="J72" s="372"/>
       <c r="K72" s="41"/>
     </row>
-    <row r="73" spans="2:12" s="31" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" s="31" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="16" t="s">
         <v>38</v>
       </c>
@@ -5681,7 +5690,7 @@
       <c r="J73" s="365"/>
       <c r="K73" s="17"/>
     </row>
-    <row r="74" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B74" s="43"/>
       <c r="C74" s="43"/>
       <c r="D74" s="41"/>
@@ -5693,7 +5702,7 @@
       <c r="J74" s="372"/>
       <c r="K74" s="41"/>
     </row>
-    <row r="75" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="44" t="s">
         <v>39</v>
       </c>
@@ -5705,7 +5714,7 @@
       <c r="J75" s="362"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="44"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -5715,7 +5724,7 @@
       <c r="J76" s="362"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B77" s="45" t="s">
         <v>40</v>
       </c>
@@ -5725,52 +5734,52 @@
       <c r="I77" s="15"/>
       <c r="L77" s="46"/>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B78" s="45"/>
       <c r="C78" s="47" t="s">
         <v>42</v>
       </c>
       <c r="L78" s="46"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B79" s="45"/>
       <c r="C79" s="48" t="s">
         <v>43</v>
       </c>
       <c r="L79" s="46"/>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B80" s="45"/>
       <c r="C80" s="47"/>
       <c r="L80" s="46"/>
     </row>
-    <row r="81" spans="2:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I81" s="494" t="s">
+      <c r="I81" s="484" t="s">
         <v>301</v>
       </c>
-      <c r="J81" s="494"/>
-      <c r="K81" s="494"/>
-      <c r="L81" s="494"/>
-      <c r="M81" s="494"/>
-      <c r="N81" s="494"/>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J81" s="484"/>
+      <c r="K81" s="484"/>
+      <c r="L81" s="484"/>
+      <c r="M81" s="484"/>
+      <c r="N81" s="484"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B82" s="45"/>
       <c r="I82" s="46"/>
       <c r="L82" s="46"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B83" s="45"/>
       <c r="C83" s="49"/>
       <c r="L83" s="46"/>
     </row>
-    <row r="84" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="45" t="s">
         <v>46</v>
       </c>
@@ -5788,7 +5797,7 @@
       <c r="J84" s="363"/>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="45"/>
       <c r="C85" s="8"/>
       <c r="D85" s="154"/>
@@ -5800,25 +5809,25 @@
       <c r="J85" s="363"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="45" t="s">
         <v>48</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D86" s="493" t="s">
+      <c r="D86" s="504" t="s">
         <v>303</v>
       </c>
-      <c r="E86" s="493"/>
-      <c r="F86" s="493"/>
-      <c r="G86" s="493"/>
-      <c r="H86" s="493"/>
-      <c r="I86" s="493"/>
-      <c r="J86" s="493"/>
+      <c r="E86" s="504"/>
+      <c r="F86" s="504"/>
+      <c r="G86" s="504"/>
+      <c r="H86" s="504"/>
+      <c r="I86" s="504"/>
+      <c r="J86" s="504"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="45"/>
       <c r="C87" s="8"/>
       <c r="D87" s="4"/>
@@ -5830,7 +5839,7 @@
       <c r="J87" s="363"/>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="45" t="s">
         <v>57</v>
       </c>
@@ -5838,10 +5847,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="45"/>
     </row>
-    <row r="90" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="45"/>
       <c r="C90" s="51" t="s">
         <v>50</v>
@@ -5850,7 +5859,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="91" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="45"/>
       <c r="C91" s="51" t="s">
         <v>51</v>
@@ -5859,7 +5868,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="92" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="45"/>
       <c r="C92" s="51" t="s">
         <v>52</v>
@@ -5868,7 +5877,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="93" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="45"/>
       <c r="C93" s="51" t="s">
         <v>53</v>
@@ -5877,32 +5886,32 @@
         <v>307</v>
       </c>
     </row>
-    <row r="94" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="45"/>
       <c r="C94" s="51" t="s">
         <v>54</v>
       </c>
       <c r="D94" s="50"/>
     </row>
-    <row r="95" spans="2:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="45"/>
     </row>
-    <row r="96" spans="2:14" ht="25.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" ht="25.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="45"/>
-      <c r="C96" s="495" t="s">
+      <c r="C96" s="505" t="s">
         <v>308</v>
       </c>
-      <c r="D96" s="496" t="s">
+      <c r="D96" s="506" t="s">
         <v>309</v>
       </c>
-      <c r="E96" s="496"/>
+      <c r="E96" s="506"/>
       <c r="F96" s="155"/>
       <c r="G96" s="156"/>
       <c r="H96" s="156"/>
     </row>
-    <row r="97" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="45"/>
-      <c r="C97" s="495"/>
+      <c r="C97" s="505"/>
       <c r="D97" s="158" t="s">
         <v>311</v>
       </c>
@@ -5913,7 +5922,7 @@
       <c r="G97" s="156"/>
       <c r="H97" s="156"/>
     </row>
-    <row r="98" spans="2:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="45"/>
       <c r="C98" s="159" t="s">
         <v>312</v>
@@ -5928,7 +5937,7 @@
       <c r="G98" s="46"/>
       <c r="H98" s="46"/>
     </row>
-    <row r="99" spans="2:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="45"/>
       <c r="C99" s="159" t="s">
         <v>313</v>
@@ -5943,7 +5952,7 @@
       <c r="G99" s="46"/>
       <c r="H99" s="46"/>
     </row>
-    <row r="100" spans="2:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="45"/>
       <c r="C100" s="159" t="s">
         <v>314</v>
@@ -5958,7 +5967,7 @@
       <c r="G100" s="46"/>
       <c r="H100" s="46"/>
     </row>
-    <row r="101" spans="2:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="45"/>
       <c r="C101" s="159" t="s">
         <v>315</v>
@@ -5973,7 +5982,7 @@
       <c r="G101" s="46"/>
       <c r="H101" s="46"/>
     </row>
-    <row r="102" spans="2:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="45"/>
       <c r="C102" s="159" t="s">
         <v>316</v>
@@ -5988,7 +5997,7 @@
       <c r="G102" s="46"/>
       <c r="H102" s="46"/>
     </row>
-    <row r="103" spans="2:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="45"/>
       <c r="C103" s="159" t="s">
         <v>317</v>
@@ -6003,7 +6012,7 @@
       <c r="G103" s="46"/>
       <c r="H103" s="46"/>
     </row>
-    <row r="104" spans="2:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="45"/>
       <c r="C104" s="159" t="s">
         <v>318</v>
@@ -6018,7 +6027,7 @@
       <c r="G104" s="46"/>
       <c r="H104" s="46"/>
     </row>
-    <row r="105" spans="2:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="45"/>
       <c r="C105" s="159" t="s">
         <v>319</v>
@@ -6033,7 +6042,7 @@
       <c r="G105" s="46"/>
       <c r="H105" s="46"/>
     </row>
-    <row r="106" spans="2:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="45"/>
       <c r="C106" s="159" t="s">
         <v>320</v>
@@ -6048,50 +6057,50 @@
       <c r="G106" s="46"/>
       <c r="H106" s="46"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B107" s="45"/>
-      <c r="C107" s="537" t="s">
+      <c r="C107" s="492" t="s">
         <v>55</v>
       </c>
-      <c r="D107" s="537"/>
-      <c r="E107" s="537"/>
-      <c r="F107" s="537"/>
-      <c r="G107" s="537"/>
-      <c r="H107" s="537"/>
-      <c r="I107" s="537"/>
-      <c r="J107" s="537"/>
-      <c r="K107" s="537"/>
-      <c r="L107" s="537"/>
-      <c r="M107" s="537"/>
-      <c r="N107" s="537"/>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D107" s="492"/>
+      <c r="E107" s="492"/>
+      <c r="F107" s="492"/>
+      <c r="G107" s="492"/>
+      <c r="H107" s="492"/>
+      <c r="I107" s="492"/>
+      <c r="J107" s="492"/>
+      <c r="K107" s="492"/>
+      <c r="L107" s="492"/>
+      <c r="M107" s="492"/>
+      <c r="N107" s="492"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B108" s="45"/>
-      <c r="C108" s="537"/>
-      <c r="D108" s="537"/>
-      <c r="E108" s="537"/>
-      <c r="F108" s="537"/>
-      <c r="G108" s="537"/>
-      <c r="H108" s="537"/>
-      <c r="I108" s="537"/>
-      <c r="J108" s="537"/>
-      <c r="K108" s="537"/>
-      <c r="L108" s="537"/>
-      <c r="M108" s="537"/>
-      <c r="N108" s="537"/>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C108" s="492"/>
+      <c r="D108" s="492"/>
+      <c r="E108" s="492"/>
+      <c r="F108" s="492"/>
+      <c r="G108" s="492"/>
+      <c r="H108" s="492"/>
+      <c r="I108" s="492"/>
+      <c r="J108" s="492"/>
+      <c r="K108" s="492"/>
+      <c r="L108" s="492"/>
+      <c r="M108" s="492"/>
+      <c r="N108" s="492"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B109" s="45"/>
       <c r="C109" s="53" t="s">
         <v>56</v>
       </c>
       <c r="L109" s="46"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B110" s="45"/>
       <c r="L110" s="46"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B111" s="45"/>
       <c r="C111" s="1" t="s">
         <v>266</v>
@@ -6099,22 +6108,22 @@
       <c r="D111" s="15"/>
       <c r="L111" s="46"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B112" s="45"/>
       <c r="L112" s="46"/>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113" s="45"/>
       <c r="C113" s="48" t="s">
         <v>267</v>
       </c>
       <c r="L113" s="46"/>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B114" s="45"/>
       <c r="L114" s="46"/>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B115" s="45" t="s">
         <v>271</v>
       </c>
@@ -6123,11 +6132,11 @@
       </c>
       <c r="L115" s="46"/>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B116" s="45"/>
       <c r="L116" s="46"/>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B117" s="45"/>
       <c r="C117" s="1" t="s">
         <v>59</v>
@@ -6135,18 +6144,18 @@
       <c r="D117" s="15"/>
       <c r="L117" s="46"/>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B118" s="45"/>
       <c r="L118" s="46"/>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B119" s="45"/>
       <c r="C119" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L119" s="46"/>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B120" s="45"/>
       <c r="C120" s="51" t="s">
         <v>50</v>
@@ -6154,7 +6163,7 @@
       <c r="D120" s="50"/>
       <c r="L120" s="46"/>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B121" s="45"/>
       <c r="C121" s="51" t="s">
         <v>51</v>
@@ -6162,7 +6171,7 @@
       <c r="D121" s="50"/>
       <c r="L121" s="46"/>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B122" s="45"/>
       <c r="C122" s="51" t="s">
         <v>52</v>
@@ -6170,7 +6179,7 @@
       <c r="D122" s="50"/>
       <c r="L122" s="46"/>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B123" s="45"/>
       <c r="C123" s="51" t="s">
         <v>53</v>
@@ -6178,35 +6187,35 @@
       <c r="D123" s="50"/>
       <c r="L123" s="46"/>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B124" s="45"/>
       <c r="L124" s="46"/>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B125" s="45"/>
       <c r="C125" s="52" t="s">
         <v>61</v>
       </c>
       <c r="L125" s="46"/>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B126" s="45"/>
       <c r="C126" s="52"/>
       <c r="L126" s="46"/>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B127" s="45"/>
       <c r="C127" s="8" t="s">
         <v>62</v>
       </c>
       <c r="L127" s="46"/>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B128" s="45"/>
       <c r="C128" s="52"/>
       <c r="L128" s="46"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B129" s="45"/>
       <c r="C129" s="1" t="s">
         <v>266</v>
@@ -6214,23 +6223,23 @@
       <c r="D129" s="15"/>
       <c r="L129" s="46"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B130" s="45"/>
       <c r="C130" s="52"/>
       <c r="L130" s="46"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B131" s="45"/>
       <c r="C131" s="48" t="s">
         <v>267</v>
       </c>
       <c r="L131" s="46"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B132" s="45"/>
       <c r="L132" s="46"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="8"/>
       <c r="B133" s="55" t="s">
         <v>63</v>
@@ -6243,7 +6252,7 @@
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="8"/>
       <c r="B134" s="57"/>
       <c r="C134" s="58"/>
@@ -6254,7 +6263,7 @@
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="8"/>
       <c r="B135" s="59" t="s">
         <v>64</v>
@@ -6269,7 +6278,7 @@
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B136" s="60"/>
       <c r="C136" s="61"/>
       <c r="D136" s="8"/>
@@ -6279,7 +6288,7 @@
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B137" s="60"/>
       <c r="C137" s="61" t="s">
         <v>66</v>
@@ -6291,31 +6300,31 @@
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B138" s="60"/>
-      <c r="C138" s="482" t="s">
+      <c r="C138" s="556" t="s">
         <v>288</v>
       </c>
-      <c r="D138" s="483"/>
-      <c r="E138" s="483"/>
-      <c r="F138" s="483"/>
-      <c r="G138" s="483"/>
-      <c r="H138" s="483"/>
-      <c r="I138" s="483"/>
-      <c r="J138" s="484"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D138" s="557"/>
+      <c r="E138" s="557"/>
+      <c r="F138" s="557"/>
+      <c r="G138" s="557"/>
+      <c r="H138" s="557"/>
+      <c r="I138" s="557"/>
+      <c r="J138" s="558"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B139" s="60"/>
-      <c r="C139" s="485"/>
-      <c r="D139" s="486"/>
-      <c r="E139" s="486"/>
-      <c r="F139" s="486"/>
-      <c r="G139" s="486"/>
-      <c r="H139" s="486"/>
-      <c r="I139" s="486"/>
-      <c r="J139" s="487"/>
-    </row>
-    <row r="140" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C139" s="559"/>
+      <c r="D139" s="560"/>
+      <c r="E139" s="560"/>
+      <c r="F139" s="560"/>
+      <c r="G139" s="560"/>
+      <c r="H139" s="560"/>
+      <c r="I139" s="560"/>
+      <c r="J139" s="561"/>
+    </row>
+    <row r="140" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="60"/>
       <c r="C140" s="61"/>
       <c r="D140" s="8"/>
@@ -6325,7 +6334,7 @@
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B141" s="60"/>
       <c r="C141" s="61" t="s">
         <v>67</v>
@@ -6334,14 +6343,14 @@
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
-      <c r="H141" s="493" t="s">
+      <c r="H141" s="504" t="s">
         <v>321</v>
       </c>
-      <c r="I141" s="493"/>
-      <c r="J141" s="493"/>
-      <c r="K141" s="493"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I141" s="504"/>
+      <c r="J141" s="504"/>
+      <c r="K141" s="504"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B142" s="60"/>
       <c r="C142" s="61" t="s">
         <v>68</v>
@@ -6350,14 +6359,14 @@
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
-      <c r="H142" s="493" t="s">
+      <c r="H142" s="504" t="s">
         <v>289</v>
       </c>
-      <c r="I142" s="493"/>
-      <c r="J142" s="493"/>
-      <c r="K142" s="493"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I142" s="504"/>
+      <c r="J142" s="504"/>
+      <c r="K142" s="504"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B143" s="60"/>
       <c r="C143" s="61" t="s">
         <v>69</v>
@@ -6366,14 +6375,14 @@
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
-      <c r="H143" s="493">
+      <c r="H143" s="504">
         <v>14406.94</v>
       </c>
-      <c r="I143" s="493"/>
-      <c r="J143" s="493"/>
-      <c r="K143" s="493"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I143" s="504"/>
+      <c r="J143" s="504"/>
+      <c r="K143" s="504"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B144" s="60"/>
       <c r="C144" s="61" t="s">
         <v>70</v>
@@ -6385,7 +6394,7 @@
       <c r="H144" s="113"/>
       <c r="I144" s="162"/>
     </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B145" s="60"/>
       <c r="C145" s="58"/>
       <c r="D145" s="58"/>
@@ -6399,7 +6408,7 @@
       <c r="M145" s="180"/>
       <c r="N145" s="181"/>
     </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B146" s="60" t="s">
         <v>71</v>
       </c>
@@ -6415,7 +6424,7 @@
       <c r="M146" s="180"/>
       <c r="N146" s="181"/>
     </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C147" s="58"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
@@ -6424,21 +6433,21 @@
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
     </row>
-    <row r="148" spans="2:15" ht="41.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:15" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C148" s="58" t="s">
         <v>73</v>
       </c>
       <c r="E148" s="46"/>
-      <c r="F148" s="494" t="s">
+      <c r="F148" s="484" t="s">
         <v>322</v>
       </c>
-      <c r="G148" s="494"/>
-      <c r="H148" s="494"/>
-      <c r="I148" s="494"/>
-      <c r="J148" s="494"/>
-      <c r="K148" s="494"/>
-    </row>
-    <row r="149" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G148" s="484"/>
+      <c r="H148" s="484"/>
+      <c r="I148" s="484"/>
+      <c r="J148" s="484"/>
+      <c r="K148" s="484"/>
+    </row>
+    <row r="149" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C149" s="58" t="s">
         <v>74</v>
       </c>
@@ -6446,7 +6455,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="150" spans="2:15" s="64" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:15" s="64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C150" s="61" t="s">
         <v>75</v>
       </c>
@@ -6459,7 +6468,7 @@
       <c r="H150" s="65"/>
       <c r="J150" s="226"/>
     </row>
-    <row r="151" spans="2:15" s="64" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:15" s="64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B151" s="66"/>
       <c r="C151" s="61" t="s">
         <v>77</v>
@@ -6481,7 +6490,7 @@
       <c r="N151" s="66"/>
       <c r="O151" s="66"/>
     </row>
-    <row r="152" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
@@ -6497,7 +6506,7 @@
       <c r="N152" s="8"/>
       <c r="O152" s="8"/>
     </row>
-    <row r="153" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B153" s="67" t="s">
         <v>78</v>
       </c>
@@ -6515,7 +6524,7 @@
       <c r="N153" s="8"/>
       <c r="O153" s="8"/>
     </row>
-    <row r="154" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
@@ -6531,7 +6540,7 @@
       <c r="N154" s="8"/>
       <c r="O154" s="8"/>
     </row>
-    <row r="155" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="66"/>
       <c r="C155" s="64" t="s">
         <v>79</v>
@@ -6549,21 +6558,21 @@
       <c r="N155" s="8"/>
       <c r="O155" s="8"/>
     </row>
-    <row r="156" spans="2:15" s="64" customFormat="1" ht="362.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:15" s="64" customFormat="1" ht="362.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="66"/>
-      <c r="C156" s="474" t="s">
+      <c r="C156" s="467" t="s">
         <v>80</v>
       </c>
-      <c r="D156" s="475"/>
-      <c r="E156" s="428" t="s">
+      <c r="D156" s="468"/>
+      <c r="E156" s="546" t="s">
         <v>484</v>
       </c>
-      <c r="F156" s="429"/>
-      <c r="G156" s="429"/>
-      <c r="H156" s="429"/>
-      <c r="I156" s="429"/>
-      <c r="J156" s="429"/>
-      <c r="K156" s="430"/>
+      <c r="F156" s="547"/>
+      <c r="G156" s="547"/>
+      <c r="H156" s="547"/>
+      <c r="I156" s="547"/>
+      <c r="J156" s="547"/>
+      <c r="K156" s="548"/>
       <c r="L156" s="66"/>
       <c r="M156" s="66" t="str">
         <f>+LOWER(L156)</f>
@@ -6572,55 +6581,55 @@
       <c r="N156" s="66"/>
       <c r="O156" s="66"/>
     </row>
-    <row r="157" spans="2:15" s="64" customFormat="1" ht="276.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:15" s="64" customFormat="1" ht="276.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="66"/>
-      <c r="C157" s="476"/>
-      <c r="D157" s="477"/>
-      <c r="E157" s="431"/>
-      <c r="F157" s="432"/>
-      <c r="G157" s="432"/>
-      <c r="H157" s="432"/>
-      <c r="I157" s="432"/>
-      <c r="J157" s="432"/>
-      <c r="K157" s="433"/>
+      <c r="C157" s="552"/>
+      <c r="D157" s="553"/>
+      <c r="E157" s="549"/>
+      <c r="F157" s="550"/>
+      <c r="G157" s="550"/>
+      <c r="H157" s="550"/>
+      <c r="I157" s="550"/>
+      <c r="J157" s="550"/>
+      <c r="K157" s="551"/>
       <c r="L157" s="66"/>
       <c r="M157" s="66"/>
       <c r="N157" s="66"/>
       <c r="O157" s="66"/>
     </row>
-    <row r="158" spans="2:15" s="64" customFormat="1" ht="248.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:15" s="64" customFormat="1" ht="248.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="66"/>
-      <c r="C158" s="476"/>
-      <c r="D158" s="477"/>
-      <c r="E158" s="431"/>
-      <c r="F158" s="432"/>
-      <c r="G158" s="432"/>
-      <c r="H158" s="432"/>
-      <c r="I158" s="432"/>
-      <c r="J158" s="432"/>
-      <c r="K158" s="433"/>
+      <c r="C158" s="552"/>
+      <c r="D158" s="553"/>
+      <c r="E158" s="549"/>
+      <c r="F158" s="550"/>
+      <c r="G158" s="550"/>
+      <c r="H158" s="550"/>
+      <c r="I158" s="550"/>
+      <c r="J158" s="550"/>
+      <c r="K158" s="551"/>
       <c r="L158" s="66"/>
       <c r="M158" s="66"/>
       <c r="N158" s="66"/>
       <c r="O158" s="66"/>
     </row>
-    <row r="159" spans="2:15" s="64" customFormat="1" ht="228.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:15" s="64" customFormat="1" ht="228.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="66"/>
-      <c r="C159" s="478"/>
-      <c r="D159" s="479"/>
-      <c r="E159" s="431"/>
-      <c r="F159" s="432"/>
-      <c r="G159" s="432"/>
-      <c r="H159" s="432"/>
-      <c r="I159" s="432"/>
-      <c r="J159" s="432"/>
-      <c r="K159" s="433"/>
+      <c r="C159" s="469"/>
+      <c r="D159" s="470"/>
+      <c r="E159" s="549"/>
+      <c r="F159" s="550"/>
+      <c r="G159" s="550"/>
+      <c r="H159" s="550"/>
+      <c r="I159" s="550"/>
+      <c r="J159" s="550"/>
+      <c r="K159" s="551"/>
       <c r="L159" s="66"/>
       <c r="M159" s="66"/>
       <c r="N159" s="66"/>
       <c r="O159" s="66"/>
     </row>
-    <row r="160" spans="2:15" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:15" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" s="66"/>
       <c r="C160" s="68" t="s">
         <v>81</v>
@@ -6638,7 +6647,7 @@
       <c r="N160" s="66"/>
       <c r="O160" s="66"/>
     </row>
-    <row r="161" spans="2:15" s="64" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:15" s="64" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="66"/>
       <c r="C161" s="68" t="s">
         <v>82</v>
@@ -6656,7 +6665,7 @@
       <c r="N161" s="66"/>
       <c r="O161" s="66"/>
     </row>
-    <row r="162" spans="2:15" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:15" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="66"/>
       <c r="C162" s="61"/>
       <c r="D162" s="61"/>
@@ -6672,7 +6681,7 @@
       <c r="N162" s="66"/>
       <c r="O162" s="66"/>
     </row>
-    <row r="163" spans="2:15" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:15" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="66"/>
       <c r="C163" s="61"/>
       <c r="D163" s="61"/>
@@ -6688,7 +6697,7 @@
       <c r="N163" s="66"/>
       <c r="O163" s="66"/>
     </row>
-    <row r="164" spans="2:15" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:15" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="55" t="s">
         <v>83</v>
       </c>
@@ -6706,7 +6715,7 @@
       <c r="N164" s="66"/>
       <c r="O164" s="66"/>
     </row>
-    <row r="165" spans="2:15" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:15" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="66"/>
       <c r="C165" s="61"/>
       <c r="D165" s="61"/>
@@ -6722,7 +6731,7 @@
       <c r="N165" s="66"/>
       <c r="O165" s="66"/>
     </row>
-    <row r="166" spans="2:15" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:15" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="66"/>
       <c r="C166" s="61" t="s">
         <v>84</v>
@@ -6740,7 +6749,7 @@
       <c r="N166" s="66"/>
       <c r="O166" s="66"/>
     </row>
-    <row r="167" spans="2:15" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:15" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="66"/>
       <c r="C167" s="61"/>
       <c r="D167" s="61"/>
@@ -6756,7 +6765,7 @@
       <c r="N167" s="66"/>
       <c r="O167" s="66"/>
     </row>
-    <row r="168" spans="2:15" s="64" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:15" s="64" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="66"/>
       <c r="C168" s="70" t="s">
         <v>85</v>
@@ -6782,7 +6791,7 @@
       <c r="N168" s="66"/>
       <c r="O168" s="66"/>
     </row>
-    <row r="169" spans="2:15" s="64" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:15" s="64" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="66"/>
       <c r="C169" s="92" t="s">
         <v>324</v>
@@ -6808,7 +6817,7 @@
       <c r="N169" s="66"/>
       <c r="O169" s="66"/>
     </row>
-    <row r="170" spans="2:15" s="64" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:15" s="64" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="66"/>
       <c r="C170" s="92" t="s">
         <v>326</v>
@@ -6834,7 +6843,7 @@
       <c r="N170" s="66"/>
       <c r="O170" s="66"/>
     </row>
-    <row r="171" spans="2:15" s="64" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:15" s="64" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="66"/>
       <c r="C171" s="92" t="s">
         <v>327</v>
@@ -6860,7 +6869,7 @@
       <c r="N171" s="66"/>
       <c r="O171" s="66"/>
     </row>
-    <row r="172" spans="2:15" s="64" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:15" s="64" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="66"/>
       <c r="C172" s="74" t="s">
         <v>90</v>
@@ -6878,7 +6887,7 @@
       <c r="N172" s="66"/>
       <c r="O172" s="66"/>
     </row>
-    <row r="173" spans="2:15" s="64" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:15" s="64" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="66"/>
       <c r="C173" s="74" t="s">
         <v>91</v>
@@ -6896,25 +6905,25 @@
       <c r="N173" s="66"/>
       <c r="O173" s="66"/>
     </row>
-    <row r="174" spans="2:15" s="64" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:15" s="64" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="66"/>
-      <c r="C174" s="536" t="s">
+      <c r="C174" s="454" t="s">
         <v>92</v>
       </c>
-      <c r="D174" s="536"/>
-      <c r="E174" s="536"/>
-      <c r="F174" s="536"/>
-      <c r="G174" s="536"/>
-      <c r="H174" s="536"/>
-      <c r="I174" s="536"/>
-      <c r="J174" s="536"/>
+      <c r="D174" s="454"/>
+      <c r="E174" s="454"/>
+      <c r="F174" s="454"/>
+      <c r="G174" s="454"/>
+      <c r="H174" s="454"/>
+      <c r="I174" s="454"/>
+      <c r="J174" s="454"/>
       <c r="K174" s="61"/>
       <c r="L174" s="66"/>
       <c r="M174" s="66"/>
       <c r="N174" s="66"/>
       <c r="O174" s="66"/>
     </row>
-    <row r="175" spans="2:15" s="64" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:15" s="64" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="66"/>
       <c r="C175" s="75" t="s">
         <v>93</v>
@@ -6932,7 +6941,7 @@
       <c r="N175" s="66"/>
       <c r="O175" s="66"/>
     </row>
-    <row r="176" spans="2:15" s="64" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:15" s="64" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="66"/>
       <c r="C176" s="61"/>
       <c r="D176" s="61"/>
@@ -6948,7 +6957,7 @@
       <c r="N176" s="66"/>
       <c r="O176" s="66"/>
     </row>
-    <row r="177" spans="2:15" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:15" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="66"/>
       <c r="C177" s="61" t="s">
         <v>94</v>
@@ -6966,7 +6975,7 @@
       <c r="N177" s="66"/>
       <c r="O177" s="66"/>
     </row>
-    <row r="178" spans="2:15" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:15" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="66"/>
       <c r="C178" s="61"/>
       <c r="D178" s="61"/>
@@ -6982,7 +6991,7 @@
       <c r="N178" s="66"/>
       <c r="O178" s="66"/>
     </row>
-    <row r="179" spans="2:15" s="64" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:15" s="64" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="66"/>
       <c r="C179" s="138" t="s">
         <v>95</v>
@@ -7002,7 +7011,7 @@
       <c r="N179" s="66"/>
       <c r="O179" s="66"/>
     </row>
-    <row r="180" spans="2:15" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:15" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="66"/>
       <c r="C180" s="61"/>
       <c r="D180" s="61"/>
@@ -7018,7 +7027,7 @@
       <c r="N180" s="66"/>
       <c r="O180" s="66"/>
     </row>
-    <row r="181" spans="2:15" s="64" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:15" s="64" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="66"/>
       <c r="C181" s="70" t="s">
         <v>96</v>
@@ -7048,7 +7057,7 @@
       <c r="N181" s="66"/>
       <c r="O181" s="66"/>
     </row>
-    <row r="182" spans="2:15" s="64" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:15" s="64" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="66"/>
       <c r="C182" s="92" t="s">
         <v>324</v>
@@ -7076,7 +7085,7 @@
       <c r="N182" s="66"/>
       <c r="O182" s="66"/>
     </row>
-    <row r="183" spans="2:15" s="64" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:15" s="64" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="66"/>
       <c r="C183" s="92" t="s">
         <v>326</v>
@@ -7104,7 +7113,7 @@
       <c r="N183" s="66"/>
       <c r="O183" s="66"/>
     </row>
-    <row r="184" spans="2:15" s="64" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:15" s="64" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="66"/>
       <c r="C184" s="92" t="s">
         <v>327</v>
@@ -7132,7 +7141,7 @@
       <c r="N184" s="66"/>
       <c r="O184" s="66"/>
     </row>
-    <row r="185" spans="2:15" s="64" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:15" s="64" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="66"/>
       <c r="C185" s="61"/>
       <c r="D185" s="61"/>
@@ -7148,7 +7157,7 @@
       <c r="N185" s="66"/>
       <c r="O185" s="66"/>
     </row>
-    <row r="186" spans="2:15" s="64" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:15" s="64" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="66"/>
       <c r="C186" s="74" t="s">
         <v>98</v>
@@ -7166,7 +7175,7 @@
       <c r="N186" s="66"/>
       <c r="O186" s="66"/>
     </row>
-    <row r="187" spans="2:15" s="64" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:15" s="64" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="66"/>
       <c r="C187" s="75" t="s">
         <v>93</v>
@@ -7184,7 +7193,7 @@
       <c r="N187" s="66"/>
       <c r="O187" s="66"/>
     </row>
-    <row r="188" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
@@ -7200,7 +7209,7 @@
       <c r="N188" s="8"/>
       <c r="O188" s="8"/>
     </row>
-    <row r="189" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B189" s="67" t="s">
         <v>99</v>
       </c>
@@ -7218,7 +7227,7 @@
       <c r="N189" s="8"/>
       <c r="O189" s="8"/>
     </row>
-    <row r="190" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B190" s="8"/>
       <c r="C190" s="58" t="s">
         <v>100</v>
@@ -7236,7 +7245,7 @@
       <c r="N190" s="8"/>
       <c r="O190" s="8"/>
     </row>
-    <row r="191" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B191" s="8"/>
       <c r="C191" s="58"/>
       <c r="D191" s="8"/>
@@ -7255,7 +7264,7 @@
       <c r="N191" s="8"/>
       <c r="O191" s="8"/>
     </row>
-    <row r="192" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B192" s="8">
         <v>5.0999999999999996</v>
       </c>
@@ -7275,7 +7284,7 @@
       <c r="N192" s="8"/>
       <c r="O192" s="8"/>
     </row>
-    <row r="193" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B193" s="8"/>
       <c r="D193" s="8"/>
       <c r="E193" s="8"/>
@@ -7290,47 +7299,47 @@
       <c r="N193" s="8"/>
       <c r="O193" s="8"/>
     </row>
-    <row r="194" spans="2:16" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="480" t="s">
+    <row r="194" spans="2:16" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B194" s="554" t="s">
         <v>280</v>
       </c>
-      <c r="C194" s="529" t="s">
+      <c r="C194" s="485" t="s">
         <v>273</v>
       </c>
-      <c r="D194" s="530"/>
-      <c r="E194" s="531" t="s">
+      <c r="D194" s="486"/>
+      <c r="E194" s="487" t="s">
         <v>103</v>
       </c>
-      <c r="F194" s="456" t="s">
+      <c r="F194" s="448" t="s">
         <v>104</v>
       </c>
-      <c r="G194" s="458"/>
-      <c r="H194" s="533" t="s">
+      <c r="G194" s="450"/>
+      <c r="H194" s="489" t="s">
         <v>105</v>
       </c>
-      <c r="I194" s="530"/>
-      <c r="J194" s="534" t="s">
+      <c r="I194" s="486"/>
+      <c r="J194" s="490" t="s">
         <v>106</v>
       </c>
-      <c r="K194" s="533" t="s">
+      <c r="K194" s="489" t="s">
         <v>107</v>
       </c>
-      <c r="L194" s="530"/>
-      <c r="M194" s="456" t="s">
+      <c r="L194" s="486"/>
+      <c r="M194" s="448" t="s">
         <v>108</v>
       </c>
-      <c r="N194" s="458"/>
+      <c r="N194" s="450"/>
       <c r="O194" s="8"/>
     </row>
-    <row r="195" spans="2:16" s="139" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="481"/>
+    <row r="195" spans="2:16" s="139" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B195" s="555"/>
       <c r="C195" s="186" t="s">
         <v>102</v>
       </c>
       <c r="D195" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="E195" s="532"/>
+      <c r="E195" s="488"/>
       <c r="F195" s="147" t="s">
         <v>86</v>
       </c>
@@ -7343,7 +7352,7 @@
       <c r="I195" s="147" t="s">
         <v>110</v>
       </c>
-      <c r="J195" s="535"/>
+      <c r="J195" s="491"/>
       <c r="K195" s="147" t="s">
         <v>111</v>
       </c>
@@ -7359,11 +7368,11 @@
       <c r="O195" s="140"/>
       <c r="P195" s="141"/>
     </row>
-    <row r="196" spans="2:16" s="64" customFormat="1" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="488" t="s">
+    <row r="196" spans="2:16" s="64" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B196" s="562" t="s">
         <v>332</v>
       </c>
-      <c r="C196" s="541" t="s">
+      <c r="C196" s="495" t="s">
         <v>333</v>
       </c>
       <c r="D196" s="190" t="s">
@@ -7401,9 +7410,9 @@
       </c>
       <c r="O196" s="66"/>
     </row>
-    <row r="197" spans="2:16" s="64" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="488"/>
-      <c r="C197" s="542"/>
+    <row r="197" spans="2:16" s="64" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B197" s="562"/>
+      <c r="C197" s="496"/>
       <c r="D197" s="190" t="s">
         <v>338</v>
       </c>
@@ -7443,9 +7452,9 @@
         <v>1416276.02</v>
       </c>
     </row>
-    <row r="198" spans="2:16" s="64" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="488"/>
-      <c r="C198" s="543"/>
+    <row r="198" spans="2:16" s="64" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B198" s="562"/>
+      <c r="C198" s="497"/>
       <c r="D198" s="190" t="s">
         <v>339</v>
       </c>
@@ -7481,9 +7490,9 @@
       </c>
       <c r="O198" s="66"/>
     </row>
-    <row r="199" spans="2:16" s="64" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:16" s="64" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="228"/>
-      <c r="C199" s="491" t="s">
+      <c r="C199" s="498" t="s">
         <v>341</v>
       </c>
       <c r="D199" s="196" t="s">
@@ -7521,9 +7530,9 @@
       </c>
       <c r="O199" s="66"/>
     </row>
-    <row r="200" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.35">
       <c r="B200" s="228"/>
-      <c r="C200" s="492"/>
+      <c r="C200" s="499"/>
       <c r="D200" s="196" t="s">
         <v>346</v>
       </c>
@@ -7559,9 +7568,9 @@
       </c>
       <c r="O200" s="66"/>
     </row>
-    <row r="201" spans="2:16" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:16" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="B201" s="228"/>
-      <c r="C201" s="492"/>
+      <c r="C201" s="499"/>
       <c r="D201" s="196" t="s">
         <v>347</v>
       </c>
@@ -7601,9 +7610,9 @@
         <v>3875146.9100000006</v>
       </c>
     </row>
-    <row r="202" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.35">
       <c r="B202" s="228"/>
-      <c r="C202" s="492"/>
+      <c r="C202" s="499"/>
       <c r="D202" s="196" t="s">
         <v>348</v>
       </c>
@@ -7639,9 +7648,9 @@
       </c>
       <c r="O202" s="66"/>
     </row>
-    <row r="203" spans="2:16" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:16" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="B203" s="228"/>
-      <c r="C203" s="492"/>
+      <c r="C203" s="499"/>
       <c r="D203" s="196" t="s">
         <v>349</v>
       </c>
@@ -7678,9 +7687,9 @@
       </c>
       <c r="O203" s="66"/>
     </row>
-    <row r="204" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="228"/>
-      <c r="C204" s="492"/>
+      <c r="C204" s="499"/>
       <c r="D204" s="196" t="s">
         <v>350</v>
       </c>
@@ -7717,9 +7726,9 @@
       </c>
       <c r="O204" s="66"/>
     </row>
-    <row r="205" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="228"/>
-      <c r="C205" s="492"/>
+      <c r="C205" s="499"/>
       <c r="D205" s="196" t="s">
         <v>351</v>
       </c>
@@ -7756,9 +7765,9 @@
       </c>
       <c r="O205" s="66"/>
     </row>
-    <row r="206" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="228"/>
-      <c r="C206" s="492"/>
+      <c r="C206" s="499"/>
       <c r="D206" s="196" t="s">
         <v>352</v>
       </c>
@@ -7795,9 +7804,9 @@
       </c>
       <c r="O206" s="66"/>
     </row>
-    <row r="207" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="228"/>
-      <c r="C207" s="492"/>
+      <c r="C207" s="499"/>
       <c r="D207" s="196" t="s">
         <v>353</v>
       </c>
@@ -7834,9 +7843,9 @@
       </c>
       <c r="O207" s="66"/>
     </row>
-    <row r="208" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="228"/>
-      <c r="C208" s="492"/>
+      <c r="C208" s="499"/>
       <c r="D208" s="196" t="s">
         <v>354</v>
       </c>
@@ -7873,9 +7882,9 @@
       </c>
       <c r="O208" s="66"/>
     </row>
-    <row r="209" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="228"/>
-      <c r="C209" s="544" t="s">
+      <c r="C209" s="500" t="s">
         <v>355</v>
       </c>
       <c r="D209" s="206" t="s">
@@ -7914,9 +7923,9 @@
       </c>
       <c r="O209" s="171"/>
     </row>
-    <row r="210" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="228"/>
-      <c r="C210" s="545"/>
+      <c r="C210" s="501"/>
       <c r="D210" s="206" t="s">
         <v>358</v>
       </c>
@@ -7957,9 +7966,9 @@
         <v>9014408.879999999</v>
       </c>
     </row>
-    <row r="211" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="228"/>
-      <c r="C211" s="545"/>
+      <c r="C211" s="501"/>
       <c r="D211" s="206" t="s">
         <v>359</v>
       </c>
@@ -7996,9 +8005,9 @@
       </c>
       <c r="O211" s="66"/>
     </row>
-    <row r="212" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="228"/>
-      <c r="C212" s="545"/>
+      <c r="C212" s="501"/>
       <c r="D212" s="206" t="s">
         <v>360</v>
       </c>
@@ -8035,9 +8044,9 @@
       </c>
       <c r="O212" s="66"/>
     </row>
-    <row r="213" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="228"/>
-      <c r="C213" s="545"/>
+      <c r="C213" s="501"/>
       <c r="D213" s="206" t="s">
         <v>361</v>
       </c>
@@ -8074,9 +8083,9 @@
       </c>
       <c r="O213" s="66"/>
     </row>
-    <row r="214" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="228"/>
-      <c r="C214" s="545"/>
+      <c r="C214" s="501"/>
       <c r="D214" s="206" t="s">
         <v>362</v>
       </c>
@@ -8113,9 +8122,9 @@
       </c>
       <c r="O214" s="66"/>
     </row>
-    <row r="215" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="228"/>
-      <c r="C215" s="545"/>
+      <c r="C215" s="501"/>
       <c r="D215" s="206" t="s">
         <v>363</v>
       </c>
@@ -8152,9 +8161,9 @@
       </c>
       <c r="O215" s="66"/>
     </row>
-    <row r="216" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="228"/>
-      <c r="C216" s="545"/>
+      <c r="C216" s="501"/>
       <c r="D216" s="206" t="s">
         <v>364</v>
       </c>
@@ -8191,9 +8200,9 @@
       </c>
       <c r="O216" s="66"/>
     </row>
-    <row r="217" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:16" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="228"/>
-      <c r="C217" s="545"/>
+      <c r="C217" s="501"/>
       <c r="D217" s="206" t="s">
         <v>365</v>
       </c>
@@ -8230,9 +8239,9 @@
       </c>
       <c r="O217" s="66"/>
     </row>
-    <row r="218" spans="2:16" s="64" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:16" s="64" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="228"/>
-      <c r="C218" s="489" t="s">
+      <c r="C218" s="563" t="s">
         <v>366</v>
       </c>
       <c r="D218" s="217" t="s">
@@ -8272,9 +8281,9 @@
       <c r="O218" s="66"/>
       <c r="P218" s="226"/>
     </row>
-    <row r="219" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.35">
       <c r="B219" s="228"/>
-      <c r="C219" s="490"/>
+      <c r="C219" s="564"/>
       <c r="D219" s="217" t="s">
         <v>368</v>
       </c>
@@ -8315,9 +8324,9 @@
         <v>4666265.4700000007</v>
       </c>
     </row>
-    <row r="220" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.35">
       <c r="B220" s="228"/>
-      <c r="C220" s="490"/>
+      <c r="C220" s="564"/>
       <c r="D220" s="217" t="s">
         <v>369</v>
       </c>
@@ -8354,9 +8363,9 @@
       </c>
       <c r="O220" s="66"/>
     </row>
-    <row r="221" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.35">
       <c r="B221" s="228"/>
-      <c r="C221" s="490"/>
+      <c r="C221" s="564"/>
       <c r="D221" s="217" t="s">
         <v>370</v>
       </c>
@@ -8393,9 +8402,9 @@
       </c>
       <c r="O221" s="66"/>
     </row>
-    <row r="222" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.35">
       <c r="B222" s="228"/>
-      <c r="C222" s="490"/>
+      <c r="C222" s="564"/>
       <c r="D222" s="217" t="s">
         <v>371</v>
       </c>
@@ -8432,9 +8441,9 @@
       </c>
       <c r="O222" s="66"/>
     </row>
-    <row r="223" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.35">
       <c r="B223" s="228"/>
-      <c r="C223" s="490"/>
+      <c r="C223" s="564"/>
       <c r="D223" s="217" t="s">
         <v>372</v>
       </c>
@@ -8471,9 +8480,9 @@
       </c>
       <c r="O223" s="66"/>
     </row>
-    <row r="224" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.35">
       <c r="B224" s="228"/>
-      <c r="C224" s="490"/>
+      <c r="C224" s="564"/>
       <c r="D224" s="217" t="s">
         <v>373</v>
       </c>
@@ -8510,9 +8519,9 @@
       </c>
       <c r="O224" s="66"/>
     </row>
-    <row r="225" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.35">
       <c r="B225" s="228"/>
-      <c r="C225" s="490"/>
+      <c r="C225" s="564"/>
       <c r="D225" s="217" t="s">
         <v>374</v>
       </c>
@@ -8549,9 +8558,9 @@
       </c>
       <c r="O225" s="66"/>
     </row>
-    <row r="226" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.35">
       <c r="B226" s="228"/>
-      <c r="C226" s="490"/>
+      <c r="C226" s="564"/>
       <c r="D226" s="217" t="s">
         <v>375</v>
       </c>
@@ -8588,9 +8597,9 @@
       </c>
       <c r="O226" s="66"/>
     </row>
-    <row r="227" spans="2:16" s="64" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:16" s="64" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="228"/>
-      <c r="C227" s="491" t="s">
+      <c r="C227" s="498" t="s">
         <v>376</v>
       </c>
       <c r="D227" s="196" t="s">
@@ -8629,9 +8638,9 @@
       </c>
       <c r="O227" s="171"/>
     </row>
-    <row r="228" spans="2:16" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:16" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="B228" s="228"/>
-      <c r="C228" s="492"/>
+      <c r="C228" s="499"/>
       <c r="D228" s="196" t="s">
         <v>378</v>
       </c>
@@ -8668,9 +8677,9 @@
       </c>
       <c r="O228" s="66"/>
     </row>
-    <row r="229" spans="2:16" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:16" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="B229" s="228"/>
-      <c r="C229" s="492"/>
+      <c r="C229" s="499"/>
       <c r="D229" s="196" t="s">
         <v>379</v>
       </c>
@@ -8707,9 +8716,9 @@
       </c>
       <c r="O229" s="66"/>
     </row>
-    <row r="230" spans="2:16" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:16" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="B230" s="228"/>
-      <c r="C230" s="492"/>
+      <c r="C230" s="499"/>
       <c r="D230" s="196" t="s">
         <v>380</v>
       </c>
@@ -8750,9 +8759,9 @@
         <v>1560050.0000000002</v>
       </c>
     </row>
-    <row r="231" spans="2:16" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:16" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="B231" s="228"/>
-      <c r="C231" s="492"/>
+      <c r="C231" s="499"/>
       <c r="D231" s="196" t="s">
         <v>381</v>
       </c>
@@ -8789,9 +8798,9 @@
       </c>
       <c r="O231" s="66"/>
     </row>
-    <row r="232" spans="2:16" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:16" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="B232" s="228"/>
-      <c r="C232" s="492"/>
+      <c r="C232" s="499"/>
       <c r="D232" s="196" t="s">
         <v>382</v>
       </c>
@@ -8828,9 +8837,9 @@
       </c>
       <c r="O232" s="66"/>
     </row>
-    <row r="233" spans="2:16" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:16" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="B233" s="228"/>
-      <c r="C233" s="492"/>
+      <c r="C233" s="499"/>
       <c r="D233" s="196" t="s">
         <v>383</v>
       </c>
@@ -8867,9 +8876,9 @@
       </c>
       <c r="O233" s="66"/>
     </row>
-    <row r="234" spans="2:16" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:16" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="B234" s="228"/>
-      <c r="C234" s="492"/>
+      <c r="C234" s="499"/>
       <c r="D234" s="196" t="s">
         <v>384</v>
       </c>
@@ -8906,9 +8915,9 @@
       </c>
       <c r="O234" s="66"/>
     </row>
-    <row r="235" spans="2:16" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:16" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="B235" s="228"/>
-      <c r="C235" s="492"/>
+      <c r="C235" s="499"/>
       <c r="D235" s="196" t="s">
         <v>385</v>
       </c>
@@ -8945,9 +8954,9 @@
       </c>
       <c r="O235" s="66"/>
     </row>
-    <row r="236" spans="2:16" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:16" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="B236" s="228"/>
-      <c r="C236" s="464" t="s">
+      <c r="C236" s="534" t="s">
         <v>386</v>
       </c>
       <c r="D236" s="229" t="s">
@@ -8986,9 +8995,9 @@
       </c>
       <c r="O236" s="66"/>
     </row>
-    <row r="237" spans="2:16" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:16" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="B237" s="228"/>
-      <c r="C237" s="465"/>
+      <c r="C237" s="535"/>
       <c r="D237" s="229" t="s">
         <v>388</v>
       </c>
@@ -9029,9 +9038,9 @@
         <v>1607924.52</v>
       </c>
     </row>
-    <row r="238" spans="2:16" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:16" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="B238" s="228"/>
-      <c r="C238" s="465"/>
+      <c r="C238" s="535"/>
       <c r="D238" s="229" t="s">
         <v>389</v>
       </c>
@@ -9068,9 +9077,9 @@
       </c>
       <c r="O238" s="61"/>
     </row>
-    <row r="239" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.35">
       <c r="B239" s="228"/>
-      <c r="C239" s="466" t="s">
+      <c r="C239" s="536" t="s">
         <v>390</v>
       </c>
       <c r="D239" s="236" t="s">
@@ -9108,9 +9117,9 @@
       </c>
       <c r="O239" s="184"/>
     </row>
-    <row r="240" spans="2:16" s="64" customFormat="1" ht="78.75" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:16" s="64" customFormat="1" ht="78" x14ac:dyDescent="0.35">
       <c r="B240" s="228"/>
-      <c r="C240" s="467"/>
+      <c r="C240" s="537"/>
       <c r="D240" s="236" t="s">
         <v>394</v>
       </c>
@@ -9147,9 +9156,9 @@
       <c r="O240" s="182"/>
       <c r="P240" s="243"/>
     </row>
-    <row r="241" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.35">
       <c r="B241" s="228"/>
-      <c r="C241" s="467"/>
+      <c r="C241" s="537"/>
       <c r="D241" s="236" t="s">
         <v>395</v>
       </c>
@@ -9189,9 +9198,9 @@
         <v>8357749.4900000002</v>
       </c>
     </row>
-    <row r="242" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.35">
       <c r="B242" s="228"/>
-      <c r="C242" s="467"/>
+      <c r="C242" s="537"/>
       <c r="D242" s="236" t="s">
         <v>396</v>
       </c>
@@ -9227,9 +9236,9 @@
       </c>
       <c r="O242" s="182"/>
     </row>
-    <row r="243" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.35">
       <c r="B243" s="228"/>
-      <c r="C243" s="467"/>
+      <c r="C243" s="537"/>
       <c r="D243" s="236" t="s">
         <v>397</v>
       </c>
@@ -9265,9 +9274,9 @@
       </c>
       <c r="O243" s="182"/>
     </row>
-    <row r="244" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.35">
       <c r="B244" s="228"/>
-      <c r="C244" s="467"/>
+      <c r="C244" s="537"/>
       <c r="D244" s="236" t="s">
         <v>398</v>
       </c>
@@ -9303,9 +9312,9 @@
       </c>
       <c r="O244" s="182"/>
     </row>
-    <row r="245" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.35">
       <c r="B245" s="228"/>
-      <c r="C245" s="467"/>
+      <c r="C245" s="537"/>
       <c r="D245" s="236" t="s">
         <v>399</v>
       </c>
@@ -9341,9 +9350,9 @@
       </c>
       <c r="O245" s="182"/>
     </row>
-    <row r="246" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.35">
       <c r="B246" s="228"/>
-      <c r="C246" s="467"/>
+      <c r="C246" s="537"/>
       <c r="D246" s="236" t="s">
         <v>400</v>
       </c>
@@ -9379,9 +9388,9 @@
       </c>
       <c r="O246" s="182"/>
     </row>
-    <row r="247" spans="2:16" s="64" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:16" s="64" customFormat="1" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B247" s="228"/>
-      <c r="C247" s="467"/>
+      <c r="C247" s="537"/>
       <c r="D247" s="244" t="s">
         <v>401</v>
       </c>
@@ -9417,8 +9426,8 @@
       </c>
       <c r="O247" s="184"/>
     </row>
-    <row r="248" spans="2:16" s="64" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B248" s="471" t="s">
+    <row r="248" spans="2:16" s="64" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="543" t="s">
         <v>402</v>
       </c>
       <c r="C248" s="251" t="s">
@@ -9463,9 +9472,9 @@
         <v>372664.73</v>
       </c>
     </row>
-    <row r="249" spans="2:16" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B249" s="472"/>
-      <c r="C249" s="468" t="s">
+    <row r="249" spans="2:16" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="B249" s="544"/>
+      <c r="C249" s="538" t="s">
         <v>405</v>
       </c>
       <c r="D249" s="259" t="s">
@@ -9508,9 +9517,9 @@
         <v>2236954.83</v>
       </c>
     </row>
-    <row r="250" spans="2:16" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B250" s="472"/>
-      <c r="C250" s="469"/>
+    <row r="250" spans="2:16" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="B250" s="544"/>
+      <c r="C250" s="539"/>
       <c r="D250" s="259" t="s">
         <v>407</v>
       </c>
@@ -9547,9 +9556,9 @@
       </c>
       <c r="O250" s="61"/>
     </row>
-    <row r="251" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="B251" s="472"/>
-      <c r="C251" s="453" t="s">
+    <row r="251" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B251" s="544"/>
+      <c r="C251" s="540" t="s">
         <v>408</v>
       </c>
       <c r="D251" s="217" t="s">
@@ -9588,9 +9597,9 @@
       </c>
       <c r="O251" s="61"/>
     </row>
-    <row r="252" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="B252" s="472"/>
-      <c r="C252" s="445"/>
+    <row r="252" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B252" s="544"/>
+      <c r="C252" s="541"/>
       <c r="D252" s="217" t="s">
         <v>410</v>
       </c>
@@ -9627,9 +9636,9 @@
       </c>
       <c r="O252" s="61"/>
     </row>
-    <row r="253" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="B253" s="472"/>
-      <c r="C253" s="445"/>
+    <row r="253" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B253" s="544"/>
+      <c r="C253" s="541"/>
       <c r="D253" s="217" t="s">
         <v>411</v>
       </c>
@@ -9670,9 +9679,9 @@
         <v>1474044.61</v>
       </c>
     </row>
-    <row r="254" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="B254" s="472"/>
-      <c r="C254" s="445"/>
+    <row r="254" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B254" s="544"/>
+      <c r="C254" s="541"/>
       <c r="D254" s="217" t="s">
         <v>412</v>
       </c>
@@ -9709,9 +9718,9 @@
       </c>
       <c r="O254" s="61"/>
     </row>
-    <row r="255" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="B255" s="472"/>
-      <c r="C255" s="445"/>
+    <row r="255" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B255" s="544"/>
+      <c r="C255" s="541"/>
       <c r="D255" s="217" t="s">
         <v>413</v>
       </c>
@@ -9748,9 +9757,9 @@
       </c>
       <c r="O255" s="61"/>
     </row>
-    <row r="256" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="B256" s="472"/>
-      <c r="C256" s="445"/>
+    <row r="256" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B256" s="544"/>
+      <c r="C256" s="541"/>
       <c r="D256" s="217" t="s">
         <v>414</v>
       </c>
@@ -9787,9 +9796,9 @@
       </c>
       <c r="O256" s="61"/>
     </row>
-    <row r="257" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="B257" s="472"/>
-      <c r="C257" s="445"/>
+    <row r="257" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B257" s="544"/>
+      <c r="C257" s="541"/>
       <c r="D257" s="217" t="s">
         <v>415</v>
       </c>
@@ -9826,9 +9835,9 @@
       </c>
       <c r="O257" s="61"/>
     </row>
-    <row r="258" spans="2:16" s="64" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="473"/>
-      <c r="C258" s="470"/>
+    <row r="258" spans="2:16" s="64" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B258" s="545"/>
+      <c r="C258" s="542"/>
       <c r="D258" s="268" t="s">
         <v>416</v>
       </c>
@@ -9865,11 +9874,11 @@
       </c>
       <c r="O258" s="61"/>
     </row>
-    <row r="259" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="B259" s="425" t="s">
+    <row r="259" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B259" s="568" t="s">
         <v>417</v>
       </c>
-      <c r="C259" s="444" t="s">
+      <c r="C259" s="581" t="s">
         <v>418</v>
       </c>
       <c r="D259" s="275" t="s">
@@ -9908,9 +9917,9 @@
       </c>
       <c r="O259" s="61"/>
     </row>
-    <row r="260" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="B260" s="426"/>
-      <c r="C260" s="445"/>
+    <row r="260" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B260" s="569"/>
+      <c r="C260" s="541"/>
       <c r="D260" s="217" t="s">
         <v>420</v>
       </c>
@@ -9951,9 +9960,9 @@
         <v>1634679.92</v>
       </c>
     </row>
-    <row r="261" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="B261" s="426"/>
-      <c r="C261" s="445"/>
+    <row r="261" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B261" s="569"/>
+      <c r="C261" s="541"/>
       <c r="D261" s="217" t="s">
         <v>421</v>
       </c>
@@ -9990,9 +9999,9 @@
       </c>
       <c r="O261" s="61"/>
     </row>
-    <row r="262" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="B262" s="426"/>
-      <c r="C262" s="445"/>
+    <row r="262" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B262" s="569"/>
+      <c r="C262" s="541"/>
       <c r="D262" s="217" t="s">
         <v>422</v>
       </c>
@@ -10029,9 +10038,9 @@
       </c>
       <c r="O262" s="61"/>
     </row>
-    <row r="263" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="B263" s="426"/>
-      <c r="C263" s="445"/>
+    <row r="263" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B263" s="569"/>
+      <c r="C263" s="541"/>
       <c r="D263" s="217" t="s">
         <v>423</v>
       </c>
@@ -10068,9 +10077,9 @@
       </c>
       <c r="O263" s="61"/>
     </row>
-    <row r="264" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="B264" s="426"/>
-      <c r="C264" s="445"/>
+    <row r="264" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B264" s="569"/>
+      <c r="C264" s="541"/>
       <c r="D264" s="217" t="s">
         <v>424</v>
       </c>
@@ -10107,9 +10116,9 @@
       </c>
       <c r="O264" s="61"/>
     </row>
-    <row r="265" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="B265" s="426"/>
-      <c r="C265" s="445"/>
+    <row r="265" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B265" s="569"/>
+      <c r="C265" s="541"/>
       <c r="D265" s="217" t="s">
         <v>425</v>
       </c>
@@ -10146,9 +10155,9 @@
       </c>
       <c r="O265" s="61"/>
     </row>
-    <row r="266" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="B266" s="426"/>
-      <c r="C266" s="445"/>
+    <row r="266" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B266" s="569"/>
+      <c r="C266" s="541"/>
       <c r="D266" s="217" t="s">
         <v>426</v>
       </c>
@@ -10185,9 +10194,9 @@
       </c>
       <c r="O266" s="61"/>
     </row>
-    <row r="267" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="B267" s="426"/>
-      <c r="C267" s="446"/>
+    <row r="267" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B267" s="569"/>
+      <c r="C267" s="582"/>
       <c r="D267" s="217" t="s">
         <v>427</v>
       </c>
@@ -10224,9 +10233,9 @@
       </c>
       <c r="O267" s="61"/>
     </row>
-    <row r="268" spans="2:16" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B268" s="426"/>
-      <c r="C268" s="447"/>
+    <row r="268" spans="2:16" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="B268" s="569"/>
+      <c r="C268" s="583"/>
       <c r="D268" s="259" t="s">
         <v>428</v>
       </c>
@@ -10267,9 +10276,9 @@
         <v>978350.54</v>
       </c>
     </row>
-    <row r="269" spans="2:16" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B269" s="426"/>
-      <c r="C269" s="448"/>
+    <row r="269" spans="2:16" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="B269" s="569"/>
+      <c r="C269" s="584"/>
       <c r="D269" s="259" t="s">
         <v>429</v>
       </c>
@@ -10306,9 +10315,9 @@
       </c>
       <c r="O269" s="61"/>
     </row>
-    <row r="270" spans="2:16" s="64" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="427"/>
-      <c r="C270" s="449"/>
+    <row r="270" spans="2:16" s="64" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="570"/>
+      <c r="C270" s="585"/>
       <c r="D270" s="284" t="s">
         <v>430</v>
       </c>
@@ -10345,11 +10354,11 @@
       </c>
       <c r="O270" s="61"/>
     </row>
-    <row r="271" spans="2:16" s="64" customFormat="1" ht="93.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B271" s="425" t="s">
+    <row r="271" spans="2:16" s="64" customFormat="1" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="568" t="s">
         <v>433</v>
       </c>
-      <c r="C271" s="450" t="s">
+      <c r="C271" s="586" t="s">
         <v>434</v>
       </c>
       <c r="D271" s="293" t="s">
@@ -10389,9 +10398,9 @@
       </c>
       <c r="O271" s="61"/>
     </row>
-    <row r="272" spans="2:16" s="64" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="B272" s="426"/>
-      <c r="C272" s="451"/>
+    <row r="272" spans="2:16" s="64" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="B272" s="569"/>
+      <c r="C272" s="587"/>
       <c r="D272" s="302" t="s">
         <v>439</v>
       </c>
@@ -10429,9 +10438,9 @@
       </c>
       <c r="O272" s="61"/>
     </row>
-    <row r="273" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="B273" s="426"/>
-      <c r="C273" s="451"/>
+    <row r="273" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B273" s="569"/>
+      <c r="C273" s="587"/>
       <c r="D273" s="302" t="s">
         <v>440</v>
       </c>
@@ -10469,9 +10478,9 @@
       </c>
       <c r="O273" s="61"/>
     </row>
-    <row r="274" spans="2:16" s="64" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
-      <c r="B274" s="426"/>
-      <c r="C274" s="451"/>
+    <row r="274" spans="2:16" s="64" customFormat="1" ht="109.2" x14ac:dyDescent="0.25">
+      <c r="B274" s="569"/>
+      <c r="C274" s="587"/>
       <c r="D274" s="302" t="s">
         <v>441</v>
       </c>
@@ -10513,9 +10522,9 @@
         <v>1163881.5</v>
       </c>
     </row>
-    <row r="275" spans="2:16" s="64" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
-      <c r="B275" s="426"/>
-      <c r="C275" s="452"/>
+    <row r="275" spans="2:16" s="64" customFormat="1" ht="109.2" x14ac:dyDescent="0.25">
+      <c r="B275" s="569"/>
+      <c r="C275" s="588"/>
       <c r="D275" s="302" t="s">
         <v>442</v>
       </c>
@@ -10553,8 +10562,8 @@
       </c>
       <c r="O275" s="61"/>
     </row>
-    <row r="276" spans="2:16" s="64" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="B276" s="426"/>
+    <row r="276" spans="2:16" s="64" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="B276" s="569"/>
       <c r="C276" s="311" t="s">
         <v>435</v>
       </c>
@@ -10599,9 +10608,9 @@
         <v>1309564.83</v>
       </c>
     </row>
-    <row r="277" spans="2:16" s="64" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="B277" s="426"/>
-      <c r="C277" s="453" t="s">
+    <row r="277" spans="2:16" s="64" customFormat="1" ht="78" x14ac:dyDescent="0.25">
+      <c r="B277" s="569"/>
+      <c r="C277" s="540" t="s">
         <v>436</v>
       </c>
       <c r="D277" s="217" t="s">
@@ -10645,9 +10654,9 @@
         <v>903876.29</v>
       </c>
     </row>
-    <row r="278" spans="2:16" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="B278" s="426"/>
-      <c r="C278" s="446"/>
+    <row r="278" spans="2:16" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B278" s="569"/>
+      <c r="C278" s="582"/>
       <c r="D278" s="217" t="s">
         <v>448</v>
       </c>
@@ -10685,9 +10694,9 @@
       </c>
       <c r="O278" s="61"/>
     </row>
-    <row r="279" spans="2:16" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B279" s="426"/>
-      <c r="C279" s="454" t="s">
+    <row r="279" spans="2:16" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="B279" s="569"/>
+      <c r="C279" s="589" t="s">
         <v>437</v>
       </c>
       <c r="D279" s="318" t="s">
@@ -10731,9 +10740,9 @@
         <v>804988</v>
       </c>
     </row>
-    <row r="280" spans="2:16" s="64" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="427"/>
-      <c r="C280" s="455"/>
+    <row r="280" spans="2:16" s="64" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="570"/>
+      <c r="C280" s="590"/>
       <c r="D280" s="327" t="s">
         <v>451</v>
       </c>
@@ -10771,11 +10780,11 @@
       </c>
       <c r="O280" s="61"/>
     </row>
-    <row r="281" spans="2:16" s="64" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B281" s="425" t="s">
+    <row r="281" spans="2:16" s="64" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B281" s="568" t="s">
         <v>453</v>
       </c>
-      <c r="C281" s="437" t="s">
+      <c r="C281" s="574" t="s">
         <v>454</v>
       </c>
       <c r="D281" s="252" t="s">
@@ -10815,9 +10824,9 @@
       </c>
       <c r="O281" s="61"/>
     </row>
-    <row r="282" spans="2:16" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B282" s="426"/>
-      <c r="C282" s="438"/>
+    <row r="282" spans="2:16" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="B282" s="569"/>
+      <c r="C282" s="575"/>
       <c r="D282" s="339" t="s">
         <v>457</v>
       </c>
@@ -10859,9 +10868,9 @@
         <v>457253.2</v>
       </c>
     </row>
-    <row r="283" spans="2:16" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B283" s="426"/>
-      <c r="C283" s="439"/>
+    <row r="283" spans="2:16" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="B283" s="569"/>
+      <c r="C283" s="576"/>
       <c r="D283" s="339" t="s">
         <v>456</v>
       </c>
@@ -10899,8 +10908,8 @@
       </c>
       <c r="O283" s="66"/>
     </row>
-    <row r="284" spans="2:16" s="64" customFormat="1" ht="112.5" x14ac:dyDescent="0.2">
-      <c r="B284" s="426"/>
+    <row r="284" spans="2:16" s="64" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B284" s="569"/>
       <c r="C284" s="348" t="s">
         <v>460</v>
       </c>
@@ -10945,9 +10954,9 @@
         <v>105106.37</v>
       </c>
     </row>
-    <row r="285" spans="2:16" s="64" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
-      <c r="B285" s="426"/>
-      <c r="C285" s="440" t="s">
+    <row r="285" spans="2:16" s="64" customFormat="1" ht="109.2" x14ac:dyDescent="0.25">
+      <c r="B285" s="569"/>
+      <c r="C285" s="577" t="s">
         <v>462</v>
       </c>
       <c r="D285" s="196" t="s">
@@ -10991,9 +11000,9 @@
         <v>836588.32000000007</v>
       </c>
     </row>
-    <row r="286" spans="2:16" s="64" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="B286" s="426"/>
-      <c r="C286" s="441"/>
+    <row r="286" spans="2:16" s="64" customFormat="1" ht="78" x14ac:dyDescent="0.25">
+      <c r="B286" s="569"/>
+      <c r="C286" s="578"/>
       <c r="D286" s="196" t="s">
         <v>464</v>
       </c>
@@ -11031,9 +11040,9 @@
       </c>
       <c r="O286" s="66"/>
     </row>
-    <row r="287" spans="2:16" s="64" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B287" s="426"/>
-      <c r="C287" s="442" t="s">
+    <row r="287" spans="2:16" s="64" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B287" s="569"/>
+      <c r="C287" s="579" t="s">
         <v>465</v>
       </c>
       <c r="D287" s="229" t="s">
@@ -11073,9 +11082,9 @@
       </c>
       <c r="O287" s="66"/>
     </row>
-    <row r="288" spans="2:16" s="64" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B288" s="426"/>
-      <c r="C288" s="443"/>
+    <row r="288" spans="2:16" s="64" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B288" s="569"/>
+      <c r="C288" s="580"/>
       <c r="D288" s="229" t="s">
         <v>467</v>
       </c>
@@ -11117,9 +11126,9 @@
         <v>416307</v>
       </c>
     </row>
-    <row r="289" spans="2:16" s="64" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="B289" s="426"/>
-      <c r="C289" s="422" t="s">
+    <row r="289" spans="2:16" s="64" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="B289" s="569"/>
+      <c r="C289" s="565" t="s">
         <v>469</v>
       </c>
       <c r="D289" s="217" t="s">
@@ -11159,9 +11168,9 @@
       </c>
       <c r="O289" s="66"/>
     </row>
-    <row r="290" spans="2:16" s="64" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B290" s="426"/>
-      <c r="C290" s="423"/>
+    <row r="290" spans="2:16" s="64" customFormat="1" ht="52.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B290" s="569"/>
+      <c r="C290" s="566"/>
       <c r="D290" s="217" t="s">
         <v>471</v>
       </c>
@@ -11203,9 +11212,9 @@
         <v>603829.57999999996</v>
       </c>
     </row>
-    <row r="291" spans="2:16" s="64" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="427"/>
-      <c r="C291" s="424"/>
+    <row r="291" spans="2:16" s="64" customFormat="1" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B291" s="570"/>
+      <c r="C291" s="567"/>
       <c r="D291" s="268" t="s">
         <v>472</v>
       </c>
@@ -11243,7 +11252,7 @@
       </c>
       <c r="O291" s="66"/>
     </row>
-    <row r="292" spans="2:16" s="64" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:16" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="B292" s="291" t="s">
         <v>474</v>
       </c>
@@ -11291,12 +11300,12 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="293" spans="2:16" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:16" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B293" s="168"/>
-      <c r="C293" s="539" t="s">
+      <c r="C293" s="494" t="s">
         <v>113</v>
       </c>
-      <c r="D293" s="539"/>
+      <c r="D293" s="494"/>
       <c r="E293" s="72" t="s">
         <v>114</v>
       </c>
@@ -11311,12 +11320,12 @@
       <c r="N293" s="142"/>
       <c r="O293" s="66"/>
     </row>
-    <row r="294" spans="2:16" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:16" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="168"/>
-      <c r="C294" s="539" t="s">
+      <c r="C294" s="494" t="s">
         <v>115</v>
       </c>
-      <c r="D294" s="539"/>
+      <c r="D294" s="494"/>
       <c r="E294" s="72" t="s">
         <v>116</v>
       </c>
@@ -11331,12 +11340,12 @@
       <c r="N294" s="142"/>
       <c r="O294" s="66"/>
     </row>
-    <row r="295" spans="2:16" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:16" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="168"/>
-      <c r="C295" s="539" t="s">
+      <c r="C295" s="494" t="s">
         <v>117</v>
       </c>
-      <c r="D295" s="539"/>
+      <c r="D295" s="494"/>
       <c r="E295" s="72" t="s">
         <v>118</v>
       </c>
@@ -11351,12 +11360,12 @@
       <c r="N295" s="72"/>
       <c r="O295" s="66"/>
     </row>
-    <row r="296" spans="2:16" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:16" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B296" s="168"/>
-      <c r="C296" s="539" t="s">
+      <c r="C296" s="494" t="s">
         <v>119</v>
       </c>
-      <c r="D296" s="539"/>
+      <c r="D296" s="494"/>
       <c r="E296" s="72" t="s">
         <v>120</v>
       </c>
@@ -11371,12 +11380,12 @@
       <c r="N296" s="72"/>
       <c r="O296" s="66"/>
     </row>
-    <row r="297" spans="2:16" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:16" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" s="168"/>
-      <c r="C297" s="539" t="s">
+      <c r="C297" s="494" t="s">
         <v>121</v>
       </c>
-      <c r="D297" s="539"/>
+      <c r="D297" s="494"/>
       <c r="E297" s="72" t="s">
         <v>122</v>
       </c>
@@ -11391,12 +11400,12 @@
       <c r="N297" s="72"/>
       <c r="O297" s="66"/>
     </row>
-    <row r="298" spans="2:16" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:16" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B298" s="168"/>
-      <c r="C298" s="539" t="s">
+      <c r="C298" s="494" t="s">
         <v>123</v>
       </c>
-      <c r="D298" s="539"/>
+      <c r="D298" s="494"/>
       <c r="E298" s="72" t="s">
         <v>124</v>
       </c>
@@ -11411,12 +11420,12 @@
       <c r="N298" s="72"/>
       <c r="O298" s="66"/>
     </row>
-    <row r="299" spans="2:16" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:16" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B299" s="169"/>
-      <c r="C299" s="540" t="s">
+      <c r="C299" s="474" t="s">
         <v>125</v>
       </c>
-      <c r="D299" s="540"/>
+      <c r="D299" s="474"/>
       <c r="E299" s="143" t="s">
         <v>126</v>
       </c>
@@ -11431,16 +11440,16 @@
       <c r="N299" s="72"/>
       <c r="O299" s="66"/>
     </row>
-    <row r="300" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C300" s="538" t="s">
+    <row r="300" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="C300" s="493" t="s">
         <v>127</v>
       </c>
-      <c r="D300" s="538"/>
-      <c r="E300" s="538"/>
-      <c r="F300" s="538"/>
-      <c r="G300" s="538"/>
-      <c r="H300" s="538"/>
-      <c r="I300" s="538"/>
+      <c r="D300" s="493"/>
+      <c r="E300" s="493"/>
+      <c r="F300" s="493"/>
+      <c r="G300" s="493"/>
+      <c r="H300" s="493"/>
+      <c r="I300" s="493"/>
       <c r="J300" s="361">
         <f>SUM(J196:J299)</f>
         <v>43895911.010000028</v>
@@ -11455,7 +11464,7 @@
         <v>43895911.009999998</v>
       </c>
     </row>
-    <row r="301" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B301" s="8"/>
       <c r="C301" s="75" t="s">
         <v>268</v>
@@ -11473,7 +11482,7 @@
       <c r="N301" s="8"/>
       <c r="O301" s="8"/>
     </row>
-    <row r="302" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B302" s="8"/>
       <c r="C302" s="81"/>
       <c r="D302" s="81"/>
@@ -11489,7 +11498,7 @@
       <c r="N302" s="8"/>
       <c r="O302" s="8"/>
     </row>
-    <row r="303" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B303" s="59" t="s">
         <v>128</v>
       </c>
@@ -11509,7 +11518,7 @@
       <c r="N303" s="8"/>
       <c r="O303" s="8"/>
     </row>
-    <row r="304" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B304" s="8"/>
       <c r="C304" s="58"/>
       <c r="D304" s="8"/>
@@ -11525,7 +11534,7 @@
       <c r="N304" s="8"/>
       <c r="O304" s="8"/>
     </row>
-    <row r="305" spans="2:16" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:16" ht="36" x14ac:dyDescent="0.35">
       <c r="B305" s="8"/>
       <c r="C305" s="70" t="s">
         <v>130</v>
@@ -11545,7 +11554,7 @@
       <c r="N305" s="8"/>
       <c r="O305" s="8"/>
     </row>
-    <row r="306" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B306" s="8"/>
       <c r="C306" s="77" t="s">
         <v>132</v>
@@ -11565,7 +11574,7 @@
       <c r="N306" s="8"/>
       <c r="O306" s="8"/>
     </row>
-    <row r="307" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B307" s="8"/>
       <c r="C307" s="77" t="s">
         <v>476</v>
@@ -11585,7 +11594,7 @@
       <c r="N307" s="8"/>
       <c r="O307" s="8"/>
     </row>
-    <row r="308" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B308" s="8"/>
       <c r="C308" s="77" t="s">
         <v>133</v>
@@ -11605,7 +11614,7 @@
       <c r="N308" s="8"/>
       <c r="O308" s="8"/>
     </row>
-    <row r="309" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B309" s="8"/>
       <c r="C309" s="77" t="s">
         <v>134</v>
@@ -11625,7 +11634,7 @@
       <c r="N309" s="8"/>
       <c r="O309" s="8"/>
     </row>
-    <row r="310" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B310" s="8"/>
       <c r="C310" s="77" t="s">
         <v>135</v>
@@ -11645,7 +11654,7 @@
       <c r="N310" s="8"/>
       <c r="O310" s="8"/>
     </row>
-    <row r="311" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B311" s="8"/>
       <c r="C311" s="70" t="s">
         <v>136</v>
@@ -11663,7 +11672,7 @@
       <c r="N311" s="8"/>
       <c r="O311" s="8"/>
     </row>
-    <row r="312" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B312" s="8"/>
       <c r="C312" s="58"/>
       <c r="D312" s="83"/>
@@ -11679,7 +11688,7 @@
       <c r="N312" s="8"/>
       <c r="O312" s="8"/>
     </row>
-    <row r="313" spans="2:16" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B313" s="8"/>
       <c r="C313" s="144" t="s">
         <v>137</v>
@@ -11700,7 +11709,7 @@
       <c r="N313" s="8"/>
       <c r="O313" s="8"/>
     </row>
-    <row r="314" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B314" s="8"/>
       <c r="C314" s="58"/>
       <c r="D314" s="8"/>
@@ -11716,7 +11725,7 @@
       <c r="N314" s="8"/>
       <c r="O314" s="8"/>
     </row>
-    <row r="315" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B315" s="59" t="s">
         <v>138</v>
       </c>
@@ -11737,7 +11746,7 @@
       <c r="O315" s="8"/>
       <c r="P315" s="46"/>
     </row>
-    <row r="316" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B316" s="59"/>
       <c r="C316" s="58"/>
       <c r="D316" s="8"/>
@@ -11754,7 +11763,7 @@
       <c r="O316" s="8"/>
       <c r="P316" s="46"/>
     </row>
-    <row r="317" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B317" s="84"/>
       <c r="C317" s="58" t="s">
         <v>140</v>
@@ -11776,7 +11785,7 @@
       <c r="O317" s="8"/>
       <c r="P317" s="46"/>
     </row>
-    <row r="318" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B318" s="8"/>
       <c r="C318" s="58" t="s">
         <v>142</v>
@@ -11794,7 +11803,7 @@
       <c r="N318" s="8"/>
       <c r="O318" s="8"/>
     </row>
-    <row r="319" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B319" s="8"/>
       <c r="C319" s="58" t="s">
         <v>143</v>
@@ -11815,7 +11824,7 @@
       <c r="N319" s="8"/>
       <c r="O319" s="8"/>
     </row>
-    <row r="320" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B320" s="84"/>
       <c r="C320" s="8"/>
       <c r="D320" s="8"/>
@@ -11831,32 +11840,32 @@
       <c r="N320" s="8"/>
       <c r="O320" s="8"/>
     </row>
-    <row r="321" spans="2:15" ht="47.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:15" ht="47.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B321" s="8"/>
-      <c r="C321" s="474" t="s">
+      <c r="C321" s="467" t="s">
         <v>103</v>
       </c>
-      <c r="D321" s="475"/>
-      <c r="E321" s="456" t="s">
+      <c r="D321" s="468"/>
+      <c r="E321" s="448" t="s">
         <v>145</v>
       </c>
-      <c r="F321" s="457"/>
-      <c r="G321" s="457"/>
-      <c r="H321" s="457"/>
-      <c r="I321" s="458"/>
-      <c r="J321" s="459" t="s">
+      <c r="F321" s="449"/>
+      <c r="G321" s="449"/>
+      <c r="H321" s="449"/>
+      <c r="I321" s="450"/>
+      <c r="J321" s="591" t="s">
         <v>146</v>
       </c>
-      <c r="K321" s="460"/>
-      <c r="L321" s="460"/>
+      <c r="K321" s="451"/>
+      <c r="L321" s="451"/>
       <c r="M321" s="8"/>
       <c r="N321" s="8"/>
       <c r="O321" s="8"/>
     </row>
-    <row r="322" spans="2:15" ht="59.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:15" ht="59.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B322" s="8"/>
-      <c r="C322" s="478"/>
-      <c r="D322" s="479"/>
+      <c r="C322" s="469"/>
+      <c r="D322" s="470"/>
       <c r="E322" s="70">
         <v>1</v>
       </c>
@@ -11872,14 +11881,14 @@
       <c r="I322" s="85">
         <v>5</v>
       </c>
-      <c r="J322" s="459"/>
+      <c r="J322" s="591"/>
       <c r="K322" s="34"/>
       <c r="L322" s="34"/>
       <c r="M322" s="8"/>
       <c r="N322" s="8"/>
       <c r="O322" s="8"/>
     </row>
-    <row r="323" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="66"/>
       <c r="C323" s="86" t="s">
         <v>114</v>
@@ -11909,13 +11918,13 @@
         <f>SUM(E323:I323)</f>
         <v>13649172.420000002</v>
       </c>
-      <c r="K323" s="460"/>
-      <c r="L323" s="460"/>
+      <c r="K323" s="451"/>
+      <c r="L323" s="451"/>
       <c r="M323" s="66"/>
       <c r="N323" s="66"/>
       <c r="O323" s="66"/>
     </row>
-    <row r="324" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="66"/>
       <c r="C324" s="86" t="s">
         <v>116</v>
@@ -11927,13 +11936,13 @@
       <c r="H324" s="72"/>
       <c r="I324" s="86"/>
       <c r="J324" s="404"/>
-      <c r="K324" s="460"/>
-      <c r="L324" s="460"/>
+      <c r="K324" s="451"/>
+      <c r="L324" s="451"/>
       <c r="M324" s="66"/>
       <c r="N324" s="66"/>
       <c r="O324" s="66"/>
     </row>
-    <row r="325" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="66"/>
       <c r="C325" s="86" t="s">
         <v>118</v>
@@ -11945,13 +11954,13 @@
       <c r="H325" s="72"/>
       <c r="I325" s="86"/>
       <c r="J325" s="404"/>
-      <c r="K325" s="460"/>
-      <c r="L325" s="460"/>
+      <c r="K325" s="451"/>
+      <c r="L325" s="451"/>
       <c r="M325" s="66"/>
       <c r="N325" s="66"/>
       <c r="O325" s="66"/>
     </row>
-    <row r="326" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="66"/>
       <c r="C326" s="86" t="s">
         <v>148</v>
@@ -11963,13 +11972,13 @@
       <c r="H326" s="72"/>
       <c r="I326" s="86"/>
       <c r="J326" s="404"/>
-      <c r="K326" s="460"/>
-      <c r="L326" s="460"/>
+      <c r="K326" s="451"/>
+      <c r="L326" s="451"/>
       <c r="M326" s="66"/>
       <c r="N326" s="66"/>
       <c r="O326" s="66"/>
     </row>
-    <row r="327" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="66"/>
       <c r="C327" s="86" t="s">
         <v>149</v>
@@ -11981,13 +11990,13 @@
       <c r="H327" s="72"/>
       <c r="I327" s="86"/>
       <c r="J327" s="404"/>
-      <c r="K327" s="460"/>
-      <c r="L327" s="460"/>
+      <c r="K327" s="451"/>
+      <c r="L327" s="451"/>
       <c r="M327" s="66"/>
       <c r="N327" s="66"/>
       <c r="O327" s="66"/>
     </row>
-    <row r="328" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="66"/>
       <c r="C328" s="86" t="s">
         <v>124</v>
@@ -12017,13 +12026,13 @@
         <f t="shared" ref="J328:J329" si="28">+SUM(E328:I328)</f>
         <v>6601395.0899999999</v>
       </c>
-      <c r="K328" s="460"/>
-      <c r="L328" s="460"/>
+      <c r="K328" s="451"/>
+      <c r="L328" s="451"/>
       <c r="M328" s="66"/>
       <c r="N328" s="66"/>
       <c r="O328" s="66"/>
     </row>
-    <row r="329" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="66"/>
       <c r="C329" s="86" t="s">
         <v>126</v>
@@ -12053,13 +12062,13 @@
         <f t="shared" si="28"/>
         <v>23645343.5</v>
       </c>
-      <c r="K329" s="460"/>
-      <c r="L329" s="460"/>
+      <c r="K329" s="451"/>
+      <c r="L329" s="451"/>
       <c r="M329" s="66"/>
       <c r="N329" s="66"/>
       <c r="O329" s="66"/>
     </row>
-    <row r="330" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="87"/>
       <c r="C330" s="86" t="s">
         <v>478</v>
@@ -12089,13 +12098,13 @@
         <f t="shared" ref="J330" si="29">+SUM(E330:I330)</f>
         <v>6438461.1500000004</v>
       </c>
-      <c r="K330" s="460"/>
-      <c r="L330" s="460"/>
+      <c r="K330" s="451"/>
+      <c r="L330" s="451"/>
       <c r="M330" s="66"/>
       <c r="N330" s="66"/>
       <c r="O330" s="66"/>
     </row>
-    <row r="331" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="66"/>
       <c r="C331" s="68" t="s">
         <v>150</v>
@@ -12125,18 +12134,18 @@
         <f>SUM(J323:J330)</f>
         <v>50334372.160000004</v>
       </c>
-      <c r="K331" s="460"/>
-      <c r="L331" s="460"/>
+      <c r="K331" s="451"/>
+      <c r="L331" s="451"/>
       <c r="M331" s="66"/>
       <c r="N331" s="66"/>
       <c r="O331" s="66"/>
     </row>
-    <row r="332" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="66"/>
-      <c r="C332" s="456" t="s">
+      <c r="C332" s="448" t="s">
         <v>130</v>
       </c>
-      <c r="D332" s="457"/>
+      <c r="D332" s="449"/>
       <c r="E332" s="70">
         <v>1</v>
       </c>
@@ -12153,13 +12162,13 @@
         <v>5</v>
       </c>
       <c r="J332" s="404"/>
-      <c r="K332" s="460"/>
-      <c r="L332" s="460"/>
+      <c r="K332" s="451"/>
+      <c r="L332" s="451"/>
       <c r="M332" s="66"/>
       <c r="N332" s="66"/>
       <c r="O332" s="66"/>
     </row>
-    <row r="333" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="87"/>
       <c r="C333" s="86" t="s">
         <v>132</v>
@@ -12189,13 +12198,13 @@
         <f t="shared" ref="J333:J337" si="30">+SUM(E333:I333)</f>
         <v>842966.55</v>
       </c>
-      <c r="K333" s="460"/>
-      <c r="L333" s="460"/>
+      <c r="K333" s="451"/>
+      <c r="L333" s="451"/>
       <c r="M333" s="66"/>
       <c r="N333" s="66"/>
       <c r="O333" s="66"/>
     </row>
-    <row r="334" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="87"/>
       <c r="C334" s="86"/>
       <c r="D334" s="39"/>
@@ -12211,7 +12220,7 @@
       <c r="N334" s="66"/>
       <c r="O334" s="66"/>
     </row>
-    <row r="335" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="87"/>
       <c r="C335" s="86" t="s">
         <v>151</v>
@@ -12235,7 +12244,7 @@
       <c r="N335" s="66"/>
       <c r="O335" s="66"/>
     </row>
-    <row r="336" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="87"/>
       <c r="C336" s="86" t="s">
         <v>134</v>
@@ -12271,7 +12280,7 @@
       <c r="N336" s="66"/>
       <c r="O336" s="66"/>
     </row>
-    <row r="337" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="87"/>
       <c r="C337" s="86" t="s">
         <v>135</v>
@@ -12295,17 +12304,17 @@
       <c r="N337" s="66"/>
       <c r="O337" s="66"/>
     </row>
-    <row r="338" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="87"/>
-      <c r="C338" s="461" t="s">
+      <c r="C338" s="592" t="s">
         <v>150</v>
       </c>
-      <c r="D338" s="462"/>
-      <c r="E338" s="462"/>
-      <c r="F338" s="462"/>
-      <c r="G338" s="462"/>
-      <c r="H338" s="462"/>
-      <c r="I338" s="463"/>
+      <c r="D338" s="593"/>
+      <c r="E338" s="593"/>
+      <c r="F338" s="593"/>
+      <c r="G338" s="593"/>
+      <c r="H338" s="593"/>
+      <c r="I338" s="594"/>
       <c r="J338" s="404">
         <f>SUM(J333:J337)</f>
         <v>2762896.1599999997</v>
@@ -12316,17 +12325,17 @@
       <c r="N338" s="66"/>
       <c r="O338" s="66"/>
     </row>
-    <row r="339" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:15" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="66"/>
-      <c r="C339" s="578" t="s">
+      <c r="C339" s="432" t="s">
         <v>152</v>
       </c>
-      <c r="D339" s="579"/>
-      <c r="E339" s="579"/>
-      <c r="F339" s="579"/>
-      <c r="G339" s="579"/>
-      <c r="H339" s="579"/>
-      <c r="I339" s="580"/>
+      <c r="D339" s="433"/>
+      <c r="E339" s="433"/>
+      <c r="F339" s="433"/>
+      <c r="G339" s="433"/>
+      <c r="H339" s="433"/>
+      <c r="I339" s="434"/>
       <c r="J339" s="404">
         <f>+J331+J338</f>
         <v>53097268.32</v>
@@ -12337,25 +12346,25 @@
       <c r="N339" s="66"/>
       <c r="O339" s="66"/>
     </row>
-    <row r="340" spans="2:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B340" s="8"/>
-      <c r="C340" s="581" t="s">
+      <c r="C340" s="435" t="s">
         <v>153</v>
       </c>
-      <c r="D340" s="581"/>
-      <c r="E340" s="581"/>
-      <c r="F340" s="581"/>
-      <c r="G340" s="581"/>
-      <c r="H340" s="581"/>
-      <c r="I340" s="581"/>
-      <c r="J340" s="581"/>
+      <c r="D340" s="435"/>
+      <c r="E340" s="435"/>
+      <c r="F340" s="435"/>
+      <c r="G340" s="435"/>
+      <c r="H340" s="435"/>
+      <c r="I340" s="435"/>
+      <c r="J340" s="435"/>
       <c r="K340" s="8"/>
       <c r="L340" s="8"/>
       <c r="M340" s="8"/>
       <c r="N340" s="8"/>
       <c r="O340" s="8"/>
     </row>
-    <row r="341" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B341" s="8"/>
       <c r="C341" s="61" t="s">
         <v>154</v>
@@ -12373,7 +12382,7 @@
       <c r="N341" s="8"/>
       <c r="O341" s="8"/>
     </row>
-    <row r="342" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B342" s="8"/>
       <c r="D342" s="8"/>
       <c r="E342" s="8"/>
@@ -12388,7 +12397,7 @@
       <c r="N342" s="8"/>
       <c r="O342" s="8"/>
     </row>
-    <row r="343" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B343" s="8"/>
       <c r="C343" s="8"/>
       <c r="D343" s="58"/>
@@ -12404,7 +12413,7 @@
       <c r="N343" s="8"/>
       <c r="O343" s="8"/>
     </row>
-    <row r="344" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B344" s="59" t="s">
         <v>155</v>
       </c>
@@ -12423,7 +12432,7 @@
       <c r="N344" s="8"/>
       <c r="O344" s="8"/>
     </row>
-    <row r="345" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B345" s="8"/>
       <c r="C345" s="61" t="s">
         <v>157</v>
@@ -12441,54 +12450,54 @@
       <c r="N345" s="8"/>
       <c r="O345" s="8"/>
     </row>
-    <row r="346" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C346" s="61"/>
     </row>
-    <row r="347" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C347" s="61" t="s">
         <v>158</v>
       </c>
       <c r="D347" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="F347" s="590" t="s">
+      <c r="F347" s="444" t="s">
         <v>159</v>
       </c>
-      <c r="G347" s="591"/>
+      <c r="G347" s="445"/>
       <c r="H347" s="77"/>
       <c r="I347" s="58"/>
       <c r="J347" s="374"/>
       <c r="K347" s="58"/>
     </row>
-    <row r="348" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C348" s="61"/>
       <c r="I348" s="58"/>
       <c r="J348" s="403"/>
       <c r="K348" s="58"/>
     </row>
-    <row r="349" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C349" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D349" s="15"/>
-      <c r="F349" s="590" t="s">
+      <c r="F349" s="444" t="s">
         <v>161</v>
       </c>
-      <c r="G349" s="590"/>
-      <c r="H349" s="592"/>
+      <c r="G349" s="444"/>
+      <c r="H349" s="446"/>
       <c r="I349" s="58"/>
       <c r="K349" s="58"/>
     </row>
-    <row r="350" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D350" s="46"/>
-      <c r="F350" s="590"/>
-      <c r="G350" s="590"/>
-      <c r="H350" s="593"/>
+      <c r="F350" s="444"/>
+      <c r="G350" s="444"/>
+      <c r="H350" s="447"/>
       <c r="I350" s="58"/>
       <c r="J350" s="403"/>
       <c r="K350" s="58"/>
     </row>
-    <row r="351" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B351" s="60" t="s">
         <v>162</v>
       </c>
@@ -12496,28 +12505,28 @@
         <v>163</v>
       </c>
     </row>
-    <row r="352" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C352" s="58"/>
     </row>
-    <row r="353" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C353" s="61"/>
       <c r="D353" s="8"/>
-      <c r="E353" s="582" t="s">
+      <c r="E353" s="436" t="s">
         <v>164</v>
       </c>
-      <c r="F353" s="583"/>
-      <c r="G353" s="583"/>
-      <c r="H353" s="583"/>
-      <c r="I353" s="584"/>
-      <c r="J353" s="585" t="s">
+      <c r="F353" s="437"/>
+      <c r="G353" s="437"/>
+      <c r="H353" s="437"/>
+      <c r="I353" s="438"/>
+      <c r="J353" s="439" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="354" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C354" s="588" t="s">
+    <row r="354" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C354" s="442" t="s">
         <v>103</v>
       </c>
-      <c r="D354" s="588" t="s">
+      <c r="D354" s="442" t="s">
         <v>166</v>
       </c>
       <c r="E354" s="88" t="s">
@@ -12535,11 +12544,11 @@
       <c r="I354" s="88" t="s">
         <v>170</v>
       </c>
-      <c r="J354" s="586"/>
-    </row>
-    <row r="355" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C355" s="589"/>
-      <c r="D355" s="589"/>
+      <c r="J354" s="440"/>
+    </row>
+    <row r="355" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C355" s="443"/>
+      <c r="D355" s="443"/>
       <c r="E355" s="89" t="s">
         <v>171</v>
       </c>
@@ -12555,9 +12564,9 @@
       <c r="I355" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="J355" s="587"/>
-    </row>
-    <row r="356" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J355" s="441"/>
+    </row>
+    <row r="356" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C356" s="86" t="s">
         <v>114</v>
       </c>
@@ -12589,7 +12598,7 @@
         <v>601967.31000000006</v>
       </c>
     </row>
-    <row r="357" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C357" s="86" t="s">
         <v>116</v>
       </c>
@@ -12601,7 +12610,7 @@
       <c r="I357" s="90"/>
       <c r="J357" s="406"/>
     </row>
-    <row r="358" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C358" s="86" t="s">
         <v>118</v>
       </c>
@@ -12613,7 +12622,7 @@
       <c r="I358" s="90"/>
       <c r="J358" s="406"/>
     </row>
-    <row r="359" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C359" s="86" t="s">
         <v>148</v>
       </c>
@@ -12625,7 +12634,7 @@
       <c r="I359" s="90"/>
       <c r="J359" s="406"/>
     </row>
-    <row r="360" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C360" s="86" t="s">
         <v>149</v>
       </c>
@@ -12637,7 +12646,7 @@
       <c r="I360" s="90"/>
       <c r="J360" s="406"/>
     </row>
-    <row r="361" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C361" s="86" t="s">
         <v>124</v>
       </c>
@@ -12670,7 +12679,7 @@
       </c>
       <c r="K361" s="93"/>
     </row>
-    <row r="362" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C362" s="86" t="s">
         <v>126</v>
       </c>
@@ -12703,7 +12712,7 @@
       </c>
       <c r="K362" s="93"/>
     </row>
-    <row r="363" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C363" s="94"/>
       <c r="D363" s="95"/>
       <c r="E363" s="95"/>
@@ -12714,20 +12723,20 @@
       <c r="J363" s="407"/>
       <c r="K363" s="93"/>
     </row>
-    <row r="364" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C364" s="551" t="s">
+    <row r="364" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C364" s="465" t="s">
         <v>275</v>
       </c>
-      <c r="D364" s="551"/>
-      <c r="E364" s="551"/>
-      <c r="F364" s="551"/>
-      <c r="G364" s="551"/>
-      <c r="H364" s="551"/>
-      <c r="I364" s="551"/>
-      <c r="J364" s="551"/>
+      <c r="D364" s="465"/>
+      <c r="E364" s="465"/>
+      <c r="F364" s="465"/>
+      <c r="G364" s="465"/>
+      <c r="H364" s="465"/>
+      <c r="I364" s="465"/>
+      <c r="J364" s="465"/>
       <c r="K364" s="93"/>
     </row>
-    <row r="365" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C365" s="94"/>
       <c r="D365" s="95"/>
       <c r="E365" s="95"/>
@@ -12738,7 +12747,7 @@
       <c r="J365" s="407"/>
       <c r="K365" s="93"/>
     </row>
-    <row r="366" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B366" s="60" t="s">
         <v>172</v>
       </c>
@@ -12754,7 +12763,7 @@
       <c r="J366" s="407"/>
       <c r="K366" s="93"/>
     </row>
-    <row r="367" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B367" s="8"/>
       <c r="C367" s="58"/>
       <c r="D367" s="8"/>
@@ -12766,7 +12775,7 @@
       <c r="J367" s="407"/>
       <c r="K367" s="93"/>
     </row>
-    <row r="368" spans="2:11" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:11" ht="36" x14ac:dyDescent="0.35">
       <c r="B368" s="8"/>
       <c r="C368" s="58"/>
       <c r="D368" s="8"/>
@@ -12784,12 +12793,12 @@
       <c r="J368" s="407"/>
       <c r="K368" s="93"/>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B369" s="8"/>
-      <c r="C369" s="552" t="s">
+      <c r="C369" s="466" t="s">
         <v>174</v>
       </c>
-      <c r="D369" s="552"/>
+      <c r="D369" s="466"/>
       <c r="E369" s="176">
         <f>+J339</f>
         <v>53097268.32</v>
@@ -12801,12 +12810,12 @@
       <c r="J369" s="407"/>
       <c r="K369" s="93"/>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B370" s="8"/>
-      <c r="C370" s="552" t="s">
+      <c r="C370" s="466" t="s">
         <v>173</v>
       </c>
-      <c r="D370" s="552"/>
+      <c r="D370" s="466"/>
       <c r="E370" s="177">
         <v>43085564.881302774</v>
       </c>
@@ -12817,7 +12826,7 @@
       <c r="J370" s="407"/>
       <c r="K370" s="93"/>
     </row>
-    <row r="371" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C371" s="94"/>
       <c r="D371" s="95"/>
       <c r="E371" s="95"/>
@@ -12828,7 +12837,7 @@
       <c r="J371" s="407"/>
       <c r="K371" s="93"/>
     </row>
-    <row r="372" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C372" s="94"/>
       <c r="D372" s="95"/>
       <c r="E372" s="95"/>
@@ -12839,28 +12848,28 @@
       <c r="J372" s="407"/>
       <c r="K372" s="93"/>
     </row>
-    <row r="373" spans="1:12" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:12" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B373" s="44" t="s">
         <v>175</v>
       </c>
       <c r="C373" s="101"/>
       <c r="J373" s="408"/>
     </row>
-    <row r="374" spans="1:12" s="48" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:12" s="48" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B374" s="102"/>
       <c r="C374" s="101"/>
       <c r="J374" s="408"/>
     </row>
-    <row r="375" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C375" s="574" t="s">
+    <row r="375" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C375" s="428" t="s">
         <v>176</v>
       </c>
-      <c r="D375" s="575"/>
+      <c r="D375" s="429"/>
       <c r="E375" s="172">
         <v>46054</v>
       </c>
     </row>
-    <row r="376" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C376" s="61" t="s">
         <v>177</v>
       </c>
@@ -12876,8 +12885,8 @@
       <c r="K376" s="8"/>
       <c r="L376" s="8"/>
     </row>
-    <row r="377" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B377" s="594"/>
+    <row r="377" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B377" s="422"/>
       <c r="C377" s="103"/>
       <c r="D377" s="8"/>
       <c r="E377" s="8"/>
@@ -12889,26 +12898,26 @@
       <c r="K377" s="8"/>
       <c r="L377" s="8"/>
     </row>
-    <row r="378" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B378" s="594"/>
-      <c r="C378" s="474" t="s">
+    <row r="378" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B378" s="422"/>
+      <c r="C378" s="467" t="s">
         <v>178</v>
       </c>
-      <c r="D378" s="475"/>
-      <c r="E378" s="553" t="s">
+      <c r="D378" s="468"/>
+      <c r="E378" s="471" t="s">
         <v>164</v>
       </c>
-      <c r="F378" s="554"/>
-      <c r="G378" s="554"/>
-      <c r="H378" s="554"/>
-      <c r="I378" s="554"/>
-      <c r="J378" s="554"/>
-      <c r="K378" s="555"/>
+      <c r="F378" s="472"/>
+      <c r="G378" s="472"/>
+      <c r="H378" s="472"/>
+      <c r="I378" s="472"/>
+      <c r="J378" s="472"/>
+      <c r="K378" s="473"/>
       <c r="L378" s="84"/>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C379" s="478"/>
-      <c r="D379" s="479"/>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C379" s="469"/>
+      <c r="D379" s="470"/>
       <c r="E379" s="70">
         <v>1</v>
       </c>
@@ -12932,8 +12941,8 @@
       </c>
       <c r="L379" s="8"/>
     </row>
-    <row r="380" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C380" s="540" t="s">
+    <row r="380" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C380" s="474" t="s">
         <v>180</v>
       </c>
       <c r="D380" s="40" t="s">
@@ -12948,8 +12957,8 @@
       <c r="K380" s="78"/>
       <c r="L380" s="8"/>
     </row>
-    <row r="381" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C381" s="556"/>
+    <row r="381" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C381" s="475"/>
       <c r="D381" s="40" t="s">
         <v>182</v>
       </c>
@@ -12962,10 +12971,10 @@
       <c r="K381" s="78"/>
       <c r="L381" s="8"/>
     </row>
-    <row r="382" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="8"/>
       <c r="B382" s="8"/>
-      <c r="C382" s="540" t="s">
+      <c r="C382" s="474" t="s">
         <v>183</v>
       </c>
       <c r="D382" s="40" t="s">
@@ -12980,10 +12989,10 @@
       <c r="K382" s="78"/>
       <c r="L382" s="8"/>
     </row>
-    <row r="383" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="8"/>
       <c r="B383" s="8"/>
-      <c r="C383" s="556"/>
+      <c r="C383" s="475"/>
       <c r="D383" s="40" t="s">
         <v>182</v>
       </c>
@@ -13010,7 +13019,7 @@
       </c>
       <c r="L383" s="8"/>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A384" s="8"/>
       <c r="B384" s="8"/>
       <c r="C384" s="58"/>
@@ -13024,7 +13033,7 @@
       <c r="K384" s="8"/>
       <c r="L384" s="8"/>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A385" s="8"/>
       <c r="B385" s="8"/>
       <c r="C385" s="58"/>
@@ -13035,7 +13044,7 @@
       <c r="H385" s="8"/>
       <c r="I385" s="8"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A386" s="8"/>
       <c r="B386" s="67" t="s">
         <v>184</v>
@@ -13048,10 +13057,10 @@
       <c r="H386" s="8"/>
       <c r="I386" s="8"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C387" s="61"/>
     </row>
-    <row r="388" spans="1:10" s="64" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" s="64" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C388" s="104" t="s">
         <v>185</v>
       </c>
@@ -13070,8 +13079,8 @@
       <c r="H388" s="93"/>
       <c r="J388" s="226"/>
     </row>
-    <row r="389" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C389" s="557" t="s">
+    <row r="389" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C389" s="476" t="s">
         <v>187</v>
       </c>
       <c r="D389" s="105" t="s">
@@ -13082,8 +13091,8 @@
       <c r="G389" s="15"/>
       <c r="H389" s="46"/>
     </row>
-    <row r="390" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C390" s="557"/>
+    <row r="390" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C390" s="476"/>
       <c r="D390" s="105" t="s">
         <v>189</v>
       </c>
@@ -13092,8 +13101,8 @@
       <c r="G390" s="15"/>
       <c r="H390" s="46"/>
     </row>
-    <row r="391" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C391" s="557"/>
+    <row r="391" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C391" s="476"/>
       <c r="D391" s="105" t="s">
         <v>190</v>
       </c>
@@ -13102,8 +13111,8 @@
       <c r="G391" s="15"/>
       <c r="H391" s="46"/>
     </row>
-    <row r="392" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C392" s="558" t="s">
+    <row r="392" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C392" s="477" t="s">
         <v>191</v>
       </c>
       <c r="D392" s="105" t="s">
@@ -13116,8 +13125,8 @@
       <c r="G392" s="15"/>
       <c r="H392" s="46"/>
     </row>
-    <row r="393" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C393" s="559"/>
+    <row r="393" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C393" s="478"/>
       <c r="D393" s="105" t="s">
         <v>193</v>
       </c>
@@ -13126,8 +13135,8 @@
       <c r="G393" s="15"/>
       <c r="H393" s="46"/>
     </row>
-    <row r="394" spans="1:10" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="C394" s="559"/>
+    <row r="394" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="C394" s="478"/>
       <c r="D394" s="105" t="s">
         <v>194</v>
       </c>
@@ -13136,8 +13145,8 @@
       <c r="G394" s="15"/>
       <c r="H394" s="46"/>
     </row>
-    <row r="395" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="C395" s="560"/>
+    <row r="395" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="C395" s="479"/>
       <c r="D395" s="105" t="s">
         <v>195</v>
       </c>
@@ -13148,7 +13157,7 @@
       <c r="G395" s="15"/>
       <c r="H395" s="46"/>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C396" s="1" t="s">
         <v>196</v>
       </c>
@@ -13157,7 +13166,7 @@
       <c r="F396" s="108"/>
       <c r="H396" s="46"/>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C397" s="46" t="s">
         <v>197</v>
       </c>
@@ -13166,31 +13175,31 @@
       <c r="F397" s="108"/>
       <c r="H397" s="46"/>
     </row>
-    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="C398" s="46"/>
       <c r="D398" s="107"/>
       <c r="E398" s="108"/>
       <c r="F398" s="108"/>
       <c r="H398" s="46"/>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C399" s="46"/>
       <c r="D399" s="107"/>
       <c r="E399" s="108"/>
       <c r="F399" s="108"/>
       <c r="H399" s="46"/>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B400" s="44" t="s">
         <v>198</v>
       </c>
       <c r="C400" s="58"/>
     </row>
-    <row r="401" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B401" s="102"/>
       <c r="C401" s="58"/>
     </row>
-    <row r="402" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B402" s="60">
         <v>8.1</v>
       </c>
@@ -13198,45 +13207,45 @@
         <v>199</v>
       </c>
     </row>
-    <row r="403" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C403" s="58"/>
     </row>
-    <row r="404" spans="2:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C404" s="428" t="s">
+    <row r="404" spans="2:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C404" s="546" t="s">
         <v>482</v>
       </c>
-      <c r="D404" s="429"/>
-      <c r="E404" s="429"/>
-      <c r="F404" s="429"/>
-      <c r="G404" s="429"/>
-      <c r="H404" s="429"/>
-      <c r="I404" s="429"/>
-      <c r="J404" s="429"/>
-      <c r="K404" s="430"/>
-    </row>
-    <row r="405" spans="2:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C405" s="431"/>
-      <c r="D405" s="432"/>
-      <c r="E405" s="432"/>
-      <c r="F405" s="432"/>
-      <c r="G405" s="432"/>
-      <c r="H405" s="432"/>
-      <c r="I405" s="432"/>
-      <c r="J405" s="432"/>
-      <c r="K405" s="433"/>
-    </row>
-    <row r="406" spans="2:11" ht="55.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C406" s="434"/>
-      <c r="D406" s="435"/>
-      <c r="E406" s="435"/>
-      <c r="F406" s="435"/>
-      <c r="G406" s="435"/>
-      <c r="H406" s="435"/>
-      <c r="I406" s="435"/>
-      <c r="J406" s="435"/>
-      <c r="K406" s="436"/>
-    </row>
-    <row r="407" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D404" s="547"/>
+      <c r="E404" s="547"/>
+      <c r="F404" s="547"/>
+      <c r="G404" s="547"/>
+      <c r="H404" s="547"/>
+      <c r="I404" s="547"/>
+      <c r="J404" s="547"/>
+      <c r="K404" s="548"/>
+    </row>
+    <row r="405" spans="2:11" ht="31.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C405" s="549"/>
+      <c r="D405" s="550"/>
+      <c r="E405" s="550"/>
+      <c r="F405" s="550"/>
+      <c r="G405" s="550"/>
+      <c r="H405" s="550"/>
+      <c r="I405" s="550"/>
+      <c r="J405" s="550"/>
+      <c r="K405" s="551"/>
+    </row>
+    <row r="406" spans="2:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C406" s="571"/>
+      <c r="D406" s="572"/>
+      <c r="E406" s="572"/>
+      <c r="F406" s="572"/>
+      <c r="G406" s="572"/>
+      <c r="H406" s="572"/>
+      <c r="I406" s="572"/>
+      <c r="J406" s="572"/>
+      <c r="K406" s="573"/>
+    </row>
+    <row r="407" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C407" s="58"/>
       <c r="D407" s="46"/>
       <c r="E407" s="46"/>
@@ -13247,10 +13256,10 @@
       <c r="J407" s="374"/>
       <c r="K407" s="46"/>
     </row>
-    <row r="408" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:11" x14ac:dyDescent="0.35">
       <c r="K408" s="46"/>
     </row>
-    <row r="409" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B409" s="60" t="s">
         <v>200</v>
       </c>
@@ -13259,27 +13268,27 @@
       </c>
       <c r="K409" s="46"/>
     </row>
-    <row r="410" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:11" x14ac:dyDescent="0.35">
       <c r="K410" s="46"/>
     </row>
-    <row r="411" spans="2:11" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="C411" s="561" t="s">
+    <row r="411" spans="2:11" ht="36" x14ac:dyDescent="0.35">
+      <c r="C411" s="480" t="s">
         <v>202</v>
       </c>
-      <c r="D411" s="562"/>
+      <c r="D411" s="481"/>
       <c r="E411" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="F411" s="561" t="s">
+      <c r="F411" s="480" t="s">
         <v>204</v>
       </c>
-      <c r="G411" s="563"/>
-      <c r="H411" s="563"/>
-      <c r="I411" s="563"/>
-      <c r="J411" s="562"/>
+      <c r="G411" s="482"/>
+      <c r="H411" s="482"/>
+      <c r="I411" s="482"/>
+      <c r="J411" s="481"/>
       <c r="K411" s="46"/>
     </row>
-    <row r="412" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C412" s="116" t="s">
         <v>205</v>
       </c>
@@ -13292,7 +13301,7 @@
       <c r="J412" s="411"/>
       <c r="K412" s="46"/>
     </row>
-    <row r="413" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C413" s="116" t="s">
         <v>206</v>
       </c>
@@ -13305,7 +13314,7 @@
       <c r="J413" s="411"/>
       <c r="K413" s="46"/>
     </row>
-    <row r="414" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C414" s="116" t="s">
         <v>207</v>
       </c>
@@ -13318,7 +13327,7 @@
       <c r="J414" s="411"/>
       <c r="K414" s="46"/>
     </row>
-    <row r="415" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C415" s="116" t="s">
         <v>208</v>
       </c>
@@ -13331,7 +13340,7 @@
       <c r="J415" s="411"/>
       <c r="K415" s="46"/>
     </row>
-    <row r="416" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C416" s="116" t="s">
         <v>209</v>
       </c>
@@ -13344,7 +13353,7 @@
       <c r="J416" s="411"/>
       <c r="K416" s="46"/>
     </row>
-    <row r="417" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C417" s="116" t="s">
         <v>210</v>
       </c>
@@ -13357,7 +13366,7 @@
       <c r="J417" s="411"/>
       <c r="K417" s="46"/>
     </row>
-    <row r="418" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C418" s="116" t="s">
         <v>211</v>
       </c>
@@ -13370,7 +13379,7 @@
       <c r="J418" s="411"/>
       <c r="K418" s="46"/>
     </row>
-    <row r="419" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C419" s="116" t="s">
         <v>212</v>
       </c>
@@ -13383,7 +13392,7 @@
       <c r="J419" s="411"/>
       <c r="K419" s="46"/>
     </row>
-    <row r="420" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C420" s="116" t="s">
         <v>213</v>
       </c>
@@ -13396,7 +13405,7 @@
       <c r="J420" s="411"/>
       <c r="K420" s="46"/>
     </row>
-    <row r="421" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C421" s="116" t="s">
         <v>214</v>
       </c>
@@ -13409,7 +13418,7 @@
       <c r="J421" s="411"/>
       <c r="K421" s="46"/>
     </row>
-    <row r="422" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C422" s="5" t="s">
         <v>215</v>
       </c>
@@ -13422,7 +13431,7 @@
       <c r="J422" s="411"/>
       <c r="K422" s="46"/>
     </row>
-    <row r="423" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C423" s="5" t="s">
         <v>216</v>
       </c>
@@ -13435,7 +13444,7 @@
       <c r="J423" s="411"/>
       <c r="K423" s="46"/>
     </row>
-    <row r="424" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C424" s="5" t="s">
         <v>217</v>
       </c>
@@ -13448,7 +13457,7 @@
       <c r="J424" s="411"/>
       <c r="K424" s="46"/>
     </row>
-    <row r="425" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C425" s="5" t="s">
         <v>218</v>
       </c>
@@ -13461,11 +13470,11 @@
       <c r="J425" s="411"/>
       <c r="K425" s="46"/>
     </row>
-    <row r="426" spans="2:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C426" s="549" t="s">
+    <row r="426" spans="2:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C426" s="463" t="s">
         <v>219</v>
       </c>
-      <c r="D426" s="550"/>
+      <c r="D426" s="464"/>
       <c r="E426" s="15"/>
       <c r="F426" s="6"/>
       <c r="G426" s="6"/>
@@ -13474,172 +13483,172 @@
       <c r="J426" s="411"/>
       <c r="K426" s="46"/>
     </row>
-    <row r="427" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:11" x14ac:dyDescent="0.35">
       <c r="K427" s="46"/>
     </row>
-    <row r="428" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B428" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="C428" s="574" t="s">
+      <c r="C428" s="428" t="s">
         <v>221</v>
       </c>
-      <c r="D428" s="574"/>
-      <c r="E428" s="574"/>
-      <c r="F428" s="574"/>
-      <c r="G428" s="575"/>
+      <c r="D428" s="428"/>
+      <c r="E428" s="428"/>
+      <c r="F428" s="428"/>
+      <c r="G428" s="429"/>
       <c r="H428" s="5"/>
       <c r="I428" s="7"/>
       <c r="J428" s="374"/>
       <c r="K428" s="46"/>
     </row>
-    <row r="429" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B429" s="45"/>
       <c r="C429" s="61"/>
       <c r="J429" s="374"/>
       <c r="K429" s="46"/>
     </row>
-    <row r="430" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B430" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="C430" s="576" t="s">
+      <c r="C430" s="430" t="s">
         <v>223</v>
       </c>
-      <c r="D430" s="576"/>
-      <c r="E430" s="576"/>
-      <c r="F430" s="576"/>
-      <c r="G430" s="577"/>
+      <c r="D430" s="430"/>
+      <c r="E430" s="430"/>
+      <c r="F430" s="430"/>
+      <c r="G430" s="431"/>
       <c r="H430" s="5"/>
       <c r="I430" s="7"/>
       <c r="J430" s="374"/>
       <c r="K430" s="46"/>
     </row>
-    <row r="431" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B431" s="64"/>
       <c r="C431" s="61"/>
       <c r="J431" s="374"/>
       <c r="K431" s="46"/>
     </row>
-    <row r="432" spans="2:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B432" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="C432" s="574" t="s">
+      <c r="C432" s="428" t="s">
         <v>225</v>
       </c>
-      <c r="D432" s="574"/>
-      <c r="E432" s="574"/>
-      <c r="F432" s="574"/>
-      <c r="G432" s="575"/>
+      <c r="D432" s="428"/>
+      <c r="E432" s="428"/>
+      <c r="F432" s="428"/>
+      <c r="G432" s="429"/>
       <c r="H432" s="5"/>
       <c r="I432" s="7"/>
       <c r="J432" s="374"/>
       <c r="K432" s="46"/>
     </row>
-    <row r="433" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B433" s="64"/>
       <c r="C433" s="61"/>
       <c r="J433" s="374"/>
       <c r="K433" s="46"/>
     </row>
-    <row r="434" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B434" s="64"/>
       <c r="C434" s="61"/>
       <c r="J434" s="374"/>
       <c r="K434" s="46"/>
     </row>
-    <row r="435" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B435" s="49" t="s">
         <v>226</v>
       </c>
       <c r="C435" s="58"/>
     </row>
-    <row r="436" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C436" s="58"/>
     </row>
-    <row r="437" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C437" s="58"/>
     </row>
-    <row r="438" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C438" s="456" t="s">
+    <row r="438" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C438" s="448" t="s">
         <v>227</v>
       </c>
-      <c r="D438" s="457"/>
-      <c r="E438" s="457"/>
-      <c r="F438" s="458"/>
+      <c r="D438" s="449"/>
+      <c r="E438" s="449"/>
+      <c r="F438" s="450"/>
       <c r="G438" s="117" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="439" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C439" s="546" t="s">
+    <row r="439" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C439" s="423" t="s">
         <v>229</v>
       </c>
-      <c r="D439" s="547"/>
-      <c r="E439" s="547"/>
-      <c r="F439" s="548"/>
+      <c r="D439" s="424"/>
+      <c r="E439" s="424"/>
+      <c r="F439" s="425"/>
       <c r="G439" s="90" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="440" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C440" s="546" t="s">
+    <row r="440" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C440" s="423" t="s">
         <v>230</v>
       </c>
-      <c r="D440" s="547"/>
-      <c r="E440" s="547"/>
-      <c r="F440" s="548"/>
+      <c r="D440" s="424"/>
+      <c r="E440" s="424"/>
+      <c r="F440" s="425"/>
       <c r="G440" s="73"/>
     </row>
-    <row r="441" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C441" s="546" t="s">
+    <row r="441" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C441" s="423" t="s">
         <v>277</v>
       </c>
-      <c r="D441" s="547"/>
-      <c r="E441" s="547"/>
-      <c r="F441" s="548"/>
+      <c r="D441" s="424"/>
+      <c r="E441" s="424"/>
+      <c r="F441" s="425"/>
       <c r="G441" s="73"/>
     </row>
-    <row r="442" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C442" s="546" t="s">
+    <row r="442" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C442" s="423" t="s">
         <v>276</v>
       </c>
-      <c r="D442" s="547"/>
-      <c r="E442" s="547"/>
-      <c r="F442" s="548"/>
+      <c r="D442" s="424"/>
+      <c r="E442" s="424"/>
+      <c r="F442" s="425"/>
       <c r="G442" s="73"/>
     </row>
-    <row r="443" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C443" s="546" t="s">
+    <row r="443" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C443" s="423" t="s">
         <v>231</v>
       </c>
-      <c r="D443" s="547"/>
-      <c r="E443" s="547"/>
-      <c r="F443" s="548"/>
+      <c r="D443" s="424"/>
+      <c r="E443" s="424"/>
+      <c r="F443" s="425"/>
       <c r="G443" s="73"/>
     </row>
-    <row r="444" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B444" s="64"/>
       <c r="C444" s="61"/>
       <c r="J444" s="374"/>
       <c r="K444" s="46"/>
     </row>
-    <row r="445" spans="2:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B445" s="64"/>
-      <c r="C445" s="536" t="s">
+      <c r="C445" s="454" t="s">
         <v>278</v>
       </c>
-      <c r="D445" s="536"/>
-      <c r="E445" s="536"/>
-      <c r="F445" s="536"/>
-      <c r="G445" s="536"/>
-      <c r="H445" s="536"/>
-      <c r="I445" s="536"/>
-      <c r="J445" s="536"/>
-      <c r="K445" s="536"/>
-    </row>
-    <row r="446" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D445" s="454"/>
+      <c r="E445" s="454"/>
+      <c r="F445" s="454"/>
+      <c r="G445" s="454"/>
+      <c r="H445" s="454"/>
+      <c r="I445" s="454"/>
+      <c r="J445" s="454"/>
+      <c r="K445" s="454"/>
+    </row>
+    <row r="446" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B446" s="64"/>
       <c r="C446" s="74" t="s">
         <v>232</v>
@@ -13647,30 +13656,30 @@
       <c r="J446" s="374"/>
       <c r="K446" s="46"/>
     </row>
-    <row r="447" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B447" s="64"/>
       <c r="C447" s="74"/>
       <c r="J447" s="374"/>
       <c r="K447" s="46"/>
     </row>
-    <row r="448" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B448" s="64"/>
-      <c r="C448" s="460" t="s">
+      <c r="C448" s="451" t="s">
         <v>233</v>
       </c>
-      <c r="D448" s="460"/>
-      <c r="E448" s="526"/>
-      <c r="F448" s="528"/>
+      <c r="D448" s="451"/>
+      <c r="E448" s="452"/>
+      <c r="F448" s="453"/>
       <c r="J448" s="374"/>
       <c r="K448" s="46"/>
     </row>
-    <row r="449" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B449" s="64"/>
       <c r="C449" s="74"/>
       <c r="J449" s="374"/>
       <c r="K449" s="46"/>
     </row>
-    <row r="450" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B450" s="49" t="s">
         <v>234</v>
       </c>
@@ -13685,7 +13694,7 @@
       <c r="K450" s="58"/>
       <c r="L450" s="8"/>
     </row>
-    <row r="451" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B451" s="48"/>
       <c r="C451" s="58"/>
       <c r="D451" s="58"/>
@@ -13698,63 +13707,63 @@
       <c r="K451" s="58"/>
       <c r="L451" s="8"/>
     </row>
-    <row r="452" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C452" s="456" t="s">
+    <row r="452" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C452" s="448" t="s">
         <v>235</v>
       </c>
-      <c r="D452" s="457"/>
-      <c r="E452" s="457"/>
-      <c r="F452" s="458"/>
+      <c r="D452" s="449"/>
+      <c r="E452" s="449"/>
+      <c r="F452" s="450"/>
       <c r="G452" s="117" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="453" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C453" s="546" t="s">
+    <row r="453" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C453" s="423" t="s">
         <v>236</v>
       </c>
-      <c r="D453" s="547"/>
-      <c r="E453" s="547"/>
-      <c r="F453" s="548"/>
+      <c r="D453" s="424"/>
+      <c r="E453" s="424"/>
+      <c r="F453" s="425"/>
       <c r="G453" s="73"/>
     </row>
-    <row r="454" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C454" s="546" t="s">
+    <row r="454" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C454" s="423" t="s">
         <v>237</v>
       </c>
-      <c r="D454" s="547"/>
-      <c r="E454" s="547"/>
-      <c r="F454" s="548"/>
+      <c r="D454" s="424"/>
+      <c r="E454" s="424"/>
+      <c r="F454" s="425"/>
       <c r="G454" s="73"/>
     </row>
-    <row r="455" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C455" s="546" t="s">
+    <row r="455" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C455" s="423" t="s">
         <v>238</v>
       </c>
-      <c r="D455" s="547"/>
-      <c r="E455" s="547"/>
-      <c r="F455" s="548"/>
+      <c r="D455" s="424"/>
+      <c r="E455" s="424"/>
+      <c r="F455" s="425"/>
       <c r="G455" s="73"/>
     </row>
-    <row r="456" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C456" s="546" t="s">
+    <row r="456" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C456" s="423" t="s">
         <v>239</v>
       </c>
-      <c r="D456" s="547"/>
-      <c r="E456" s="547"/>
-      <c r="F456" s="548"/>
+      <c r="D456" s="424"/>
+      <c r="E456" s="424"/>
+      <c r="F456" s="425"/>
       <c r="G456" s="73"/>
     </row>
-    <row r="457" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C457" s="546" t="s">
+    <row r="457" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C457" s="423" t="s">
         <v>240</v>
       </c>
-      <c r="D457" s="547"/>
-      <c r="E457" s="547"/>
-      <c r="F457" s="548"/>
+      <c r="D457" s="424"/>
+      <c r="E457" s="424"/>
+      <c r="F457" s="425"/>
       <c r="G457" s="73"/>
     </row>
-    <row r="458" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B458" s="48"/>
       <c r="C458" s="58"/>
       <c r="D458" s="58"/>
@@ -13767,7 +13776,7 @@
       <c r="K458" s="58"/>
       <c r="L458" s="8"/>
     </row>
-    <row r="459" spans="2:12" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:12" s="120" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B459" s="118" t="s">
         <v>241</v>
       </c>
@@ -13775,23 +13784,23 @@
       <c r="J459" s="412"/>
       <c r="L459" s="121"/>
     </row>
-    <row r="460" spans="2:12" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:12" s="120" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C460" s="119"/>
       <c r="J460" s="412"/>
       <c r="L460" s="121"/>
     </row>
-    <row r="461" spans="2:12" s="120" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C461" s="569" t="s">
+    <row r="461" spans="2:12" s="120" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C461" s="460" t="s">
         <v>242</v>
       </c>
-      <c r="D461" s="569"/>
+      <c r="D461" s="460"/>
       <c r="E461" s="122" t="s">
         <v>228</v>
       </c>
-      <c r="F461" s="570" t="s">
+      <c r="F461" s="461" t="s">
         <v>243</v>
       </c>
-      <c r="G461" s="571"/>
+      <c r="G461" s="462"/>
       <c r="H461" s="122" t="s">
         <v>244</v>
       </c>
@@ -13801,79 +13810,79 @@
       <c r="J461" s="413"/>
       <c r="L461" s="121"/>
     </row>
-    <row r="462" spans="2:12" s="120" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C462" s="566" t="s">
+    <row r="462" spans="2:12" s="120" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C462" s="457" t="s">
         <v>246</v>
       </c>
-      <c r="D462" s="567"/>
+      <c r="D462" s="458"/>
       <c r="E462" s="123"/>
-      <c r="F462" s="564"/>
-      <c r="G462" s="565"/>
+      <c r="F462" s="455"/>
+      <c r="G462" s="456"/>
       <c r="H462" s="123"/>
       <c r="I462" s="123"/>
       <c r="J462" s="414"/>
       <c r="L462" s="121"/>
     </row>
-    <row r="463" spans="2:12" s="120" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C463" s="566" t="s">
+    <row r="463" spans="2:12" s="120" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C463" s="457" t="s">
         <v>247</v>
       </c>
-      <c r="D463" s="567"/>
+      <c r="D463" s="458"/>
       <c r="E463" s="123"/>
-      <c r="F463" s="564"/>
-      <c r="G463" s="565"/>
+      <c r="F463" s="455"/>
+      <c r="G463" s="456"/>
       <c r="H463" s="123"/>
       <c r="I463" s="123"/>
       <c r="J463" s="414"/>
       <c r="L463" s="121"/>
     </row>
-    <row r="464" spans="2:12" s="120" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:12" s="120" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C464" s="124" t="s">
         <v>248</v>
       </c>
       <c r="D464" s="125"/>
       <c r="E464" s="123"/>
-      <c r="F464" s="564"/>
-      <c r="G464" s="565"/>
+      <c r="F464" s="455"/>
+      <c r="G464" s="456"/>
       <c r="H464" s="123"/>
       <c r="I464" s="123"/>
       <c r="J464" s="414"/>
       <c r="L464" s="121"/>
     </row>
-    <row r="465" spans="2:12" s="120" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C465" s="566" t="s">
+    <row r="465" spans="2:12" s="120" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C465" s="457" t="s">
         <v>249</v>
       </c>
-      <c r="D465" s="567"/>
+      <c r="D465" s="458"/>
       <c r="E465" s="123"/>
-      <c r="F465" s="564"/>
-      <c r="G465" s="565"/>
+      <c r="F465" s="455"/>
+      <c r="G465" s="456"/>
       <c r="H465" s="123"/>
       <c r="I465" s="123"/>
       <c r="J465" s="414"/>
       <c r="L465" s="121"/>
     </row>
-    <row r="466" spans="2:12" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:12" s="120" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C466" s="126" t="s">
         <v>250</v>
       </c>
       <c r="J466" s="412"/>
       <c r="L466" s="121"/>
     </row>
-    <row r="467" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:12" x14ac:dyDescent="0.35">
       <c r="L467" s="46"/>
     </row>
-    <row r="468" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B468" s="44" t="s">
         <v>251</v>
       </c>
       <c r="C468" s="58"/>
     </row>
-    <row r="469" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B469" s="14"/>
       <c r="C469" s="58"/>
     </row>
-    <row r="470" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B470" s="60" t="s">
         <v>252</v>
       </c>
@@ -13881,33 +13890,33 @@
         <v>253</v>
       </c>
     </row>
-    <row r="471" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B471" s="60"/>
       <c r="C471" s="58"/>
     </row>
-    <row r="472" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B472" s="60"/>
       <c r="C472" s="61" t="s">
         <v>254</v>
       </c>
       <c r="D472" s="15"/>
     </row>
-    <row r="473" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B473" s="60"/>
       <c r="C473" s="61"/>
     </row>
-    <row r="474" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B474" s="60"/>
       <c r="C474" s="61" t="s">
         <v>255</v>
       </c>
       <c r="D474" s="15"/>
     </row>
-    <row r="475" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B475" s="60"/>
       <c r="C475" s="58"/>
     </row>
-    <row r="476" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B476" s="60" t="s">
         <v>256</v>
       </c>
@@ -13915,10 +13924,10 @@
         <v>257</v>
       </c>
     </row>
-    <row r="477" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C477" s="58"/>
     </row>
-    <row r="478" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C478" s="109"/>
       <c r="D478" s="110"/>
       <c r="E478" s="110"/>
@@ -13929,7 +13938,7 @@
       <c r="J478" s="415"/>
       <c r="K478" s="62"/>
     </row>
-    <row r="479" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C479" s="111"/>
       <c r="D479" s="46"/>
       <c r="E479" s="46"/>
@@ -13940,7 +13949,7 @@
       <c r="J479" s="374"/>
       <c r="K479" s="112"/>
     </row>
-    <row r="480" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C480" s="113"/>
       <c r="D480" s="114"/>
       <c r="E480" s="114"/>
@@ -13951,86 +13960,200 @@
       <c r="J480" s="416"/>
       <c r="K480" s="63"/>
     </row>
-    <row r="481" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C481" s="58"/>
     </row>
-    <row r="482" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B482" s="127" t="s">
         <v>258</v>
       </c>
       <c r="C482" s="8"/>
       <c r="D482" s="8"/>
     </row>
-    <row r="483" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B483" s="128" t="s">
         <v>259</v>
       </c>
       <c r="C483" s="8"/>
       <c r="D483" s="8"/>
     </row>
-    <row r="484" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B484" s="128" t="s">
         <v>260</v>
       </c>
       <c r="C484" s="8"/>
       <c r="D484" s="8"/>
     </row>
-    <row r="485" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B485" s="128" t="s">
         <v>279</v>
       </c>
       <c r="C485" s="8"/>
       <c r="D485" s="8"/>
     </row>
-    <row r="486" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B486" s="128" t="s">
         <v>261</v>
       </c>
       <c r="C486" s="8"/>
       <c r="D486" s="8"/>
     </row>
-    <row r="487" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B487" s="128"/>
       <c r="C487" s="8"/>
       <c r="D487" s="8"/>
     </row>
-    <row r="488" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B488" s="58" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="489" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B489" s="58" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="490" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B490" s="58" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="491" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B491" s="58"/>
     </row>
-    <row r="492" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B492" s="58"/>
     </row>
-    <row r="493" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C493" s="58"/>
     </row>
-    <row r="494" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C494" s="58"/>
     </row>
-    <row r="495" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B495" s="568" t="s">
+    <row r="495" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B495" s="459" t="s">
         <v>265</v>
       </c>
-      <c r="C495" s="568"/>
-      <c r="D495" s="568"/>
-      <c r="E495" s="568"/>
+      <c r="C495" s="459"/>
+      <c r="D495" s="459"/>
+      <c r="E495" s="459"/>
     </row>
   </sheetData>
   <mergeCells count="138">
+    <mergeCell ref="C289:C291"/>
+    <mergeCell ref="B281:B291"/>
+    <mergeCell ref="C404:K406"/>
+    <mergeCell ref="C281:C283"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="C287:C288"/>
+    <mergeCell ref="B259:B270"/>
+    <mergeCell ref="C259:C267"/>
+    <mergeCell ref="C268:C270"/>
+    <mergeCell ref="C271:C275"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="B271:B280"/>
+    <mergeCell ref="E321:I321"/>
+    <mergeCell ref="J321:J322"/>
+    <mergeCell ref="K323:L333"/>
+    <mergeCell ref="C332:D332"/>
+    <mergeCell ref="C338:I338"/>
+    <mergeCell ref="C236:C238"/>
+    <mergeCell ref="C239:C247"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="C251:C258"/>
+    <mergeCell ref="B248:B258"/>
+    <mergeCell ref="E156:K159"/>
+    <mergeCell ref="C156:D159"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="C138:J139"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="C218:C226"/>
+    <mergeCell ref="C227:C235"/>
+    <mergeCell ref="D86:J86"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="I81:N81"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="G50:K50"/>
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="G64:K64"/>
+    <mergeCell ref="G65:K65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="G59:K59"/>
+    <mergeCell ref="G60:K60"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="F148:K148"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="E194:E195"/>
+    <mergeCell ref="F194:G194"/>
+    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="J194:J195"/>
+    <mergeCell ref="K194:L194"/>
+    <mergeCell ref="K321:L321"/>
+    <mergeCell ref="C174:J174"/>
+    <mergeCell ref="C107:N108"/>
+    <mergeCell ref="M194:N194"/>
+    <mergeCell ref="C300:I300"/>
+    <mergeCell ref="C321:D322"/>
+    <mergeCell ref="C293:D293"/>
+    <mergeCell ref="C294:D294"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="C296:D296"/>
+    <mergeCell ref="C297:D297"/>
+    <mergeCell ref="C298:D298"/>
+    <mergeCell ref="C299:D299"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="C199:C208"/>
+    <mergeCell ref="C209:C217"/>
+    <mergeCell ref="C438:F438"/>
+    <mergeCell ref="C439:F439"/>
+    <mergeCell ref="C440:F440"/>
+    <mergeCell ref="C441:F441"/>
+    <mergeCell ref="C442:F442"/>
+    <mergeCell ref="C426:D426"/>
+    <mergeCell ref="C364:J364"/>
+    <mergeCell ref="C369:D369"/>
+    <mergeCell ref="C370:D370"/>
+    <mergeCell ref="C378:D379"/>
+    <mergeCell ref="E378:K378"/>
+    <mergeCell ref="C380:C381"/>
+    <mergeCell ref="C382:C383"/>
+    <mergeCell ref="C389:C391"/>
+    <mergeCell ref="C392:C395"/>
+    <mergeCell ref="C411:D411"/>
+    <mergeCell ref="F411:J411"/>
+    <mergeCell ref="F464:G464"/>
+    <mergeCell ref="C465:D465"/>
+    <mergeCell ref="F465:G465"/>
+    <mergeCell ref="B495:E495"/>
+    <mergeCell ref="C461:D461"/>
+    <mergeCell ref="F461:G461"/>
+    <mergeCell ref="C462:D462"/>
+    <mergeCell ref="F462:G462"/>
+    <mergeCell ref="C463:D463"/>
+    <mergeCell ref="F463:G463"/>
     <mergeCell ref="C457:F457"/>
     <mergeCell ref="C456:F456"/>
     <mergeCell ref="C38:E38"/>
@@ -14055,120 +14178,6 @@
     <mergeCell ref="C448:D448"/>
     <mergeCell ref="E448:F448"/>
     <mergeCell ref="C445:K445"/>
-    <mergeCell ref="F464:G464"/>
-    <mergeCell ref="C465:D465"/>
-    <mergeCell ref="F465:G465"/>
-    <mergeCell ref="B495:E495"/>
-    <mergeCell ref="C461:D461"/>
-    <mergeCell ref="F461:G461"/>
-    <mergeCell ref="C462:D462"/>
-    <mergeCell ref="F462:G462"/>
-    <mergeCell ref="C463:D463"/>
-    <mergeCell ref="F463:G463"/>
-    <mergeCell ref="C438:F438"/>
-    <mergeCell ref="C439:F439"/>
-    <mergeCell ref="C440:F440"/>
-    <mergeCell ref="C441:F441"/>
-    <mergeCell ref="C442:F442"/>
-    <mergeCell ref="C426:D426"/>
-    <mergeCell ref="C364:J364"/>
-    <mergeCell ref="C369:D369"/>
-    <mergeCell ref="C370:D370"/>
-    <mergeCell ref="C378:D379"/>
-    <mergeCell ref="E378:K378"/>
-    <mergeCell ref="C380:C381"/>
-    <mergeCell ref="C382:C383"/>
-    <mergeCell ref="C389:C391"/>
-    <mergeCell ref="C392:C395"/>
-    <mergeCell ref="C411:D411"/>
-    <mergeCell ref="F411:J411"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="F148:K148"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="E194:E195"/>
-    <mergeCell ref="F194:G194"/>
-    <mergeCell ref="H194:I194"/>
-    <mergeCell ref="J194:J195"/>
-    <mergeCell ref="K194:L194"/>
-    <mergeCell ref="K321:L321"/>
-    <mergeCell ref="C174:J174"/>
-    <mergeCell ref="C107:N108"/>
-    <mergeCell ref="M194:N194"/>
-    <mergeCell ref="C300:I300"/>
-    <mergeCell ref="C321:D322"/>
-    <mergeCell ref="C293:D293"/>
-    <mergeCell ref="C294:D294"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="C296:D296"/>
-    <mergeCell ref="C297:D297"/>
-    <mergeCell ref="C298:D298"/>
-    <mergeCell ref="C299:D299"/>
-    <mergeCell ref="C196:C198"/>
-    <mergeCell ref="C199:C208"/>
-    <mergeCell ref="C209:C217"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="G64:K64"/>
-    <mergeCell ref="G65:K65"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="G53:K53"/>
-    <mergeCell ref="G59:K59"/>
-    <mergeCell ref="G60:K60"/>
-    <mergeCell ref="D86:J86"/>
-    <mergeCell ref="H141:K141"/>
-    <mergeCell ref="H142:K142"/>
-    <mergeCell ref="H143:K143"/>
-    <mergeCell ref="I81:N81"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="G50:K50"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="G58:K58"/>
-    <mergeCell ref="C236:C238"/>
-    <mergeCell ref="C239:C247"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="C251:C258"/>
-    <mergeCell ref="B248:B258"/>
-    <mergeCell ref="E156:K159"/>
-    <mergeCell ref="C156:D159"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="C138:J139"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="C218:C226"/>
-    <mergeCell ref="C227:C235"/>
-    <mergeCell ref="C289:C291"/>
-    <mergeCell ref="B281:B291"/>
-    <mergeCell ref="C404:K406"/>
-    <mergeCell ref="C281:C283"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="C287:C288"/>
-    <mergeCell ref="B259:B270"/>
-    <mergeCell ref="C259:C267"/>
-    <mergeCell ref="C268:C270"/>
-    <mergeCell ref="C271:C275"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="B271:B280"/>
-    <mergeCell ref="E321:I321"/>
-    <mergeCell ref="J321:J322"/>
-    <mergeCell ref="K323:L333"/>
-    <mergeCell ref="C332:D332"/>
-    <mergeCell ref="C338:I338"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -14197,26 +14206,26 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" style="364" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="29.7109375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="1"/>
+    <col min="8" max="8" width="30.44140625" style="364" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="29.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -14230,37 +14239,37 @@
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="2:14" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="186"/>
-      <c r="C2" s="531" t="s">
+      <c r="C2" s="487" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="456" t="s">
+      <c r="D2" s="448" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="458"/>
-      <c r="F2" s="533" t="s">
+      <c r="E2" s="450"/>
+      <c r="F2" s="489" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="530"/>
-      <c r="H2" s="534" t="s">
+      <c r="G2" s="486"/>
+      <c r="H2" s="490" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="533" t="s">
+      <c r="I2" s="489" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="530"/>
-      <c r="K2" s="456" t="s">
+      <c r="J2" s="486"/>
+      <c r="K2" s="448" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="458"/>
+      <c r="L2" s="450"/>
       <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="2:14" s="139" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" s="139" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="532"/>
+      <c r="C3" s="488"/>
       <c r="D3" s="185" t="s">
         <v>86</v>
       </c>
@@ -14273,7 +14282,7 @@
       <c r="G3" s="185" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="535"/>
+      <c r="H3" s="491"/>
       <c r="I3" s="185" t="s">
         <v>111</v>
       </c>
@@ -14289,7 +14298,7 @@
       <c r="M3" s="140"/>
       <c r="N3" s="187"/>
     </row>
-    <row r="4" spans="2:14" s="64" customFormat="1" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" s="64" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="190" t="s">
         <v>334</v>
       </c>
@@ -14325,7 +14334,7 @@
       </c>
       <c r="M4" s="66"/>
     </row>
-    <row r="5" spans="2:14" s="64" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" s="64" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="190" t="s">
         <v>338</v>
       </c>
@@ -14365,7 +14374,7 @@
         <v>1416276.02</v>
       </c>
     </row>
-    <row r="6" spans="2:14" s="64" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" s="64" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="190" t="s">
         <v>339</v>
       </c>
@@ -14401,7 +14410,7 @@
       </c>
       <c r="M6" s="66"/>
     </row>
-    <row r="7" spans="2:14" s="64" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" s="64" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="196" t="s">
         <v>342</v>
       </c>
@@ -14437,7 +14446,7 @@
       </c>
       <c r="M7" s="66"/>
     </row>
-    <row r="8" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B8" s="196" t="s">
         <v>346</v>
       </c>
@@ -14473,7 +14482,7 @@
       </c>
       <c r="M8" s="66"/>
     </row>
-    <row r="9" spans="2:14" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B9" s="196" t="s">
         <v>347</v>
       </c>
@@ -14513,7 +14522,7 @@
         <v>3875146.9100000006</v>
       </c>
     </row>
-    <row r="10" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B10" s="196" t="s">
         <v>348</v>
       </c>
@@ -14549,7 +14558,7 @@
       </c>
       <c r="M10" s="66"/>
     </row>
-    <row r="11" spans="2:14" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B11" s="196" t="s">
         <v>349</v>
       </c>
@@ -14586,7 +14595,7 @@
       </c>
       <c r="M11" s="66"/>
     </row>
-    <row r="12" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="196" t="s">
         <v>350</v>
       </c>
@@ -14623,7 +14632,7 @@
       </c>
       <c r="M12" s="66"/>
     </row>
-    <row r="13" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="196" t="s">
         <v>351</v>
       </c>
@@ -14660,7 +14669,7 @@
       </c>
       <c r="M13" s="66"/>
     </row>
-    <row r="14" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="196" t="s">
         <v>352</v>
       </c>
@@ -14697,7 +14706,7 @@
       </c>
       <c r="M14" s="66"/>
     </row>
-    <row r="15" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="196" t="s">
         <v>353</v>
       </c>
@@ -14734,7 +14743,7 @@
       </c>
       <c r="M15" s="66"/>
     </row>
-    <row r="16" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="196" t="s">
         <v>354</v>
       </c>
@@ -14771,7 +14780,7 @@
       </c>
       <c r="M16" s="66"/>
     </row>
-    <row r="17" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="206" t="s">
         <v>356</v>
       </c>
@@ -14808,7 +14817,7 @@
       </c>
       <c r="M17" s="171"/>
     </row>
-    <row r="18" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="206" t="s">
         <v>358</v>
       </c>
@@ -14849,7 +14858,7 @@
         <v>9014408.879999999</v>
       </c>
     </row>
-    <row r="19" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="206" t="s">
         <v>359</v>
       </c>
@@ -14886,7 +14895,7 @@
       </c>
       <c r="M19" s="66"/>
     </row>
-    <row r="20" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="206" t="s">
         <v>360</v>
       </c>
@@ -14923,7 +14932,7 @@
       </c>
       <c r="M20" s="66"/>
     </row>
-    <row r="21" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="206" t="s">
         <v>361</v>
       </c>
@@ -14960,7 +14969,7 @@
       </c>
       <c r="M21" s="66"/>
     </row>
-    <row r="22" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="206" t="s">
         <v>362</v>
       </c>
@@ -14997,7 +15006,7 @@
       </c>
       <c r="M22" s="66"/>
     </row>
-    <row r="23" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="206" t="s">
         <v>363</v>
       </c>
@@ -15034,7 +15043,7 @@
       </c>
       <c r="M23" s="66"/>
     </row>
-    <row r="24" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="206" t="s">
         <v>364</v>
       </c>
@@ -15071,7 +15080,7 @@
       </c>
       <c r="M24" s="66"/>
     </row>
-    <row r="25" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" s="64" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="206" t="s">
         <v>365</v>
       </c>
@@ -15108,7 +15117,7 @@
       </c>
       <c r="M25" s="66"/>
     </row>
-    <row r="26" spans="2:14" s="64" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" s="64" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="217" t="s">
         <v>367</v>
       </c>
@@ -15146,7 +15155,7 @@
       <c r="M26" s="66"/>
       <c r="N26" s="226"/>
     </row>
-    <row r="27" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B27" s="217" t="s">
         <v>368</v>
       </c>
@@ -15187,7 +15196,7 @@
         <v>4666265.4700000007</v>
       </c>
     </row>
-    <row r="28" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B28" s="217" t="s">
         <v>369</v>
       </c>
@@ -15224,7 +15233,7 @@
       </c>
       <c r="M28" s="66"/>
     </row>
-    <row r="29" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B29" s="217" t="s">
         <v>370</v>
       </c>
@@ -15261,7 +15270,7 @@
       </c>
       <c r="M29" s="66"/>
     </row>
-    <row r="30" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B30" s="217" t="s">
         <v>371</v>
       </c>
@@ -15298,7 +15307,7 @@
       </c>
       <c r="M30" s="66"/>
     </row>
-    <row r="31" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B31" s="217" t="s">
         <v>372</v>
       </c>
@@ -15335,7 +15344,7 @@
       </c>
       <c r="M31" s="66"/>
     </row>
-    <row r="32" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B32" s="217" t="s">
         <v>373</v>
       </c>
@@ -15372,7 +15381,7 @@
       </c>
       <c r="M32" s="66"/>
     </row>
-    <row r="33" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B33" s="217" t="s">
         <v>374</v>
       </c>
@@ -15409,7 +15418,7 @@
       </c>
       <c r="M33" s="66"/>
     </row>
-    <row r="34" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B34" s="217" t="s">
         <v>375</v>
       </c>
@@ -15446,7 +15455,7 @@
       </c>
       <c r="M34" s="66"/>
     </row>
-    <row r="35" spans="2:14" s="64" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" s="64" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="196" t="s">
         <v>377</v>
       </c>
@@ -15483,7 +15492,7 @@
       </c>
       <c r="M35" s="171"/>
     </row>
-    <row r="36" spans="2:14" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B36" s="196" t="s">
         <v>378</v>
       </c>
@@ -15520,7 +15529,7 @@
       </c>
       <c r="M36" s="66"/>
     </row>
-    <row r="37" spans="2:14" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B37" s="196" t="s">
         <v>379</v>
       </c>
@@ -15557,7 +15566,7 @@
       </c>
       <c r="M37" s="66"/>
     </row>
-    <row r="38" spans="2:14" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B38" s="196" t="s">
         <v>380</v>
       </c>
@@ -15598,7 +15607,7 @@
         <v>1560050.0000000002</v>
       </c>
     </row>
-    <row r="39" spans="2:14" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B39" s="196" t="s">
         <v>381</v>
       </c>
@@ -15635,7 +15644,7 @@
       </c>
       <c r="M39" s="66"/>
     </row>
-    <row r="40" spans="2:14" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B40" s="196" t="s">
         <v>382</v>
       </c>
@@ -15672,7 +15681,7 @@
       </c>
       <c r="M40" s="66"/>
     </row>
-    <row r="41" spans="2:14" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B41" s="196" t="s">
         <v>383</v>
       </c>
@@ -15709,7 +15718,7 @@
       </c>
       <c r="M41" s="66"/>
     </row>
-    <row r="42" spans="2:14" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B42" s="196" t="s">
         <v>384</v>
       </c>
@@ -15746,7 +15755,7 @@
       </c>
       <c r="M42" s="66"/>
     </row>
-    <row r="43" spans="2:14" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B43" s="196" t="s">
         <v>385</v>
       </c>
@@ -15783,7 +15792,7 @@
       </c>
       <c r="M43" s="66"/>
     </row>
-    <row r="44" spans="2:14" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B44" s="229" t="s">
         <v>387</v>
       </c>
@@ -15820,7 +15829,7 @@
       </c>
       <c r="M44" s="66"/>
     </row>
-    <row r="45" spans="2:14" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B45" s="229" t="s">
         <v>388</v>
       </c>
@@ -15861,7 +15870,7 @@
         <v>1607924.52</v>
       </c>
     </row>
-    <row r="46" spans="2:14" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B46" s="229" t="s">
         <v>389</v>
       </c>
@@ -15898,7 +15907,7 @@
       </c>
       <c r="M46" s="61"/>
     </row>
-    <row r="47" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B47" s="236" t="s">
         <v>391</v>
       </c>
@@ -15934,7 +15943,7 @@
       </c>
       <c r="M47" s="184"/>
     </row>
-    <row r="48" spans="2:14" s="64" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" s="64" customFormat="1" ht="78" x14ac:dyDescent="0.25">
       <c r="B48" s="236" t="s">
         <v>394</v>
       </c>
@@ -15971,7 +15980,7 @@
       <c r="M48" s="182"/>
       <c r="N48" s="243"/>
     </row>
-    <row r="49" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B49" s="236" t="s">
         <v>395</v>
       </c>
@@ -16011,7 +16020,7 @@
         <v>8357749.4900000002</v>
       </c>
     </row>
-    <row r="50" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B50" s="236" t="s">
         <v>396</v>
       </c>
@@ -16047,7 +16056,7 @@
       </c>
       <c r="M50" s="182"/>
     </row>
-    <row r="51" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B51" s="236" t="s">
         <v>397</v>
       </c>
@@ -16083,7 +16092,7 @@
       </c>
       <c r="M51" s="182"/>
     </row>
-    <row r="52" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B52" s="236" t="s">
         <v>398</v>
       </c>
@@ -16119,7 +16128,7 @@
       </c>
       <c r="M52" s="182"/>
     </row>
-    <row r="53" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B53" s="236" t="s">
         <v>399</v>
       </c>
@@ -16155,7 +16164,7 @@
       </c>
       <c r="M53" s="182"/>
     </row>
-    <row r="54" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B54" s="236" t="s">
         <v>400</v>
       </c>
@@ -16191,7 +16200,7 @@
       </c>
       <c r="M54" s="182"/>
     </row>
-    <row r="55" spans="2:14" s="64" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" s="64" customFormat="1" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="244" t="s">
         <v>401</v>
       </c>
@@ -16227,7 +16236,7 @@
       </c>
       <c r="M55" s="184"/>
     </row>
-    <row r="56" spans="2:14" s="64" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:14" s="64" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="252" t="s">
         <v>404</v>
       </c>
@@ -16267,7 +16276,7 @@
         <v>372664.73</v>
       </c>
     </row>
-    <row r="57" spans="2:14" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B57" s="259" t="s">
         <v>406</v>
       </c>
@@ -16308,7 +16317,7 @@
         <v>2236954.83</v>
       </c>
     </row>
-    <row r="58" spans="2:14" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:14" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B58" s="259" t="s">
         <v>407</v>
       </c>
@@ -16345,7 +16354,7 @@
       </c>
       <c r="M58" s="61"/>
     </row>
-    <row r="59" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B59" s="217" t="s">
         <v>409</v>
       </c>
@@ -16382,7 +16391,7 @@
       </c>
       <c r="M59" s="61"/>
     </row>
-    <row r="60" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B60" s="217" t="s">
         <v>410</v>
       </c>
@@ -16419,7 +16428,7 @@
       </c>
       <c r="M60" s="61"/>
     </row>
-    <row r="61" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B61" s="217" t="s">
         <v>411</v>
       </c>
@@ -16460,7 +16469,7 @@
         <v>1474044.61</v>
       </c>
     </row>
-    <row r="62" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B62" s="217" t="s">
         <v>412</v>
       </c>
@@ -16497,7 +16506,7 @@
       </c>
       <c r="M62" s="61"/>
     </row>
-    <row r="63" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B63" s="217" t="s">
         <v>413</v>
       </c>
@@ -16534,7 +16543,7 @@
       </c>
       <c r="M63" s="61"/>
     </row>
-    <row r="64" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B64" s="217" t="s">
         <v>414</v>
       </c>
@@ -16571,7 +16580,7 @@
       </c>
       <c r="M64" s="61"/>
     </row>
-    <row r="65" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B65" s="217" t="s">
         <v>415</v>
       </c>
@@ -16608,7 +16617,7 @@
       </c>
       <c r="M65" s="61"/>
     </row>
-    <row r="66" spans="2:14" s="64" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" s="64" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="268" t="s">
         <v>416</v>
       </c>
@@ -16645,7 +16654,7 @@
       </c>
       <c r="M66" s="61"/>
     </row>
-    <row r="67" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B67" s="275" t="s">
         <v>419</v>
       </c>
@@ -16682,7 +16691,7 @@
       </c>
       <c r="M67" s="61"/>
     </row>
-    <row r="68" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B68" s="217" t="s">
         <v>420</v>
       </c>
@@ -16723,7 +16732,7 @@
         <v>1634679.92</v>
       </c>
     </row>
-    <row r="69" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B69" s="217" t="s">
         <v>421</v>
       </c>
@@ -16760,7 +16769,7 @@
       </c>
       <c r="M69" s="61"/>
     </row>
-    <row r="70" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B70" s="217" t="s">
         <v>422</v>
       </c>
@@ -16797,7 +16806,7 @@
       </c>
       <c r="M70" s="61"/>
     </row>
-    <row r="71" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B71" s="217" t="s">
         <v>423</v>
       </c>
@@ -16834,7 +16843,7 @@
       </c>
       <c r="M71" s="61"/>
     </row>
-    <row r="72" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B72" s="217" t="s">
         <v>424</v>
       </c>
@@ -16871,7 +16880,7 @@
       </c>
       <c r="M72" s="61"/>
     </row>
-    <row r="73" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B73" s="217" t="s">
         <v>425</v>
       </c>
@@ -16908,7 +16917,7 @@
       </c>
       <c r="M73" s="61"/>
     </row>
-    <row r="74" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B74" s="217" t="s">
         <v>426</v>
       </c>
@@ -16945,7 +16954,7 @@
       </c>
       <c r="M74" s="61"/>
     </row>
-    <row r="75" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B75" s="217" t="s">
         <v>427</v>
       </c>
@@ -16982,7 +16991,7 @@
       </c>
       <c r="M75" s="61"/>
     </row>
-    <row r="76" spans="2:14" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:14" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B76" s="259" t="s">
         <v>428</v>
       </c>
@@ -17023,7 +17032,7 @@
         <v>978350.54</v>
       </c>
     </row>
-    <row r="77" spans="2:14" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B77" s="259" t="s">
         <v>429</v>
       </c>
@@ -17060,7 +17069,7 @@
       </c>
       <c r="M77" s="61"/>
     </row>
-    <row r="78" spans="2:14" s="64" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" s="64" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="284" t="s">
         <v>430</v>
       </c>
@@ -17097,7 +17106,7 @@
       </c>
       <c r="M78" s="61"/>
     </row>
-    <row r="79" spans="2:14" s="64" customFormat="1" ht="93.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:14" s="64" customFormat="1" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="293" t="s">
         <v>438</v>
       </c>
@@ -17135,7 +17144,7 @@
       </c>
       <c r="M79" s="61"/>
     </row>
-    <row r="80" spans="2:14" s="64" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" s="64" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
       <c r="B80" s="302" t="s">
         <v>439</v>
       </c>
@@ -17173,7 +17182,7 @@
       </c>
       <c r="M80" s="61"/>
     </row>
-    <row r="81" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B81" s="302" t="s">
         <v>440</v>
       </c>
@@ -17211,7 +17220,7 @@
       </c>
       <c r="M81" s="61"/>
     </row>
-    <row r="82" spans="2:14" s="64" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:14" s="64" customFormat="1" ht="109.2" x14ac:dyDescent="0.25">
       <c r="B82" s="302" t="s">
         <v>441</v>
       </c>
@@ -17253,7 +17262,7 @@
         <v>1163881.5</v>
       </c>
     </row>
-    <row r="83" spans="2:14" s="64" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:14" s="64" customFormat="1" ht="109.2" x14ac:dyDescent="0.25">
       <c r="B83" s="302" t="s">
         <v>442</v>
       </c>
@@ -17291,7 +17300,7 @@
       </c>
       <c r="M83" s="61"/>
     </row>
-    <row r="84" spans="2:14" s="64" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:14" s="64" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
       <c r="B84" s="206" t="s">
         <v>446</v>
       </c>
@@ -17333,7 +17342,7 @@
         <v>1309564.83</v>
       </c>
     </row>
-    <row r="85" spans="2:14" s="64" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:14" s="64" customFormat="1" ht="78" x14ac:dyDescent="0.25">
       <c r="B85" s="217" t="s">
         <v>447</v>
       </c>
@@ -17375,7 +17384,7 @@
         <v>903876.29</v>
       </c>
     </row>
-    <row r="86" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B86" s="217" t="s">
         <v>448</v>
       </c>
@@ -17413,7 +17422,7 @@
       </c>
       <c r="M86" s="61"/>
     </row>
-    <row r="87" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:14" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B87" s="318" t="s">
         <v>450</v>
       </c>
@@ -17455,7 +17464,7 @@
         <v>804988</v>
       </c>
     </row>
-    <row r="88" spans="2:14" s="64" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" s="64" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="327" t="s">
         <v>451</v>
       </c>
@@ -17493,7 +17502,7 @@
       </c>
       <c r="M88" s="61"/>
     </row>
-    <row r="89" spans="2:14" s="64" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:14" s="64" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="252" t="s">
         <v>455</v>
       </c>
@@ -17531,7 +17540,7 @@
       </c>
       <c r="M89" s="61"/>
     </row>
-    <row r="90" spans="2:14" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:14" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B90" s="339" t="s">
         <v>457</v>
       </c>
@@ -17573,7 +17582,7 @@
         <v>457253.2</v>
       </c>
     </row>
-    <row r="91" spans="2:14" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:14" s="64" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B91" s="339" t="s">
         <v>456</v>
       </c>
@@ -17611,7 +17620,7 @@
       </c>
       <c r="M91" s="66"/>
     </row>
-    <row r="92" spans="2:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:14" s="64" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
       <c r="B92" s="259" t="s">
         <v>461</v>
       </c>
@@ -17653,7 +17662,7 @@
         <v>105106.37</v>
       </c>
     </row>
-    <row r="93" spans="2:14" s="64" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:14" s="64" customFormat="1" ht="109.2" x14ac:dyDescent="0.25">
       <c r="B93" s="196" t="s">
         <v>463</v>
       </c>
@@ -17695,7 +17704,7 @@
         <v>836588.32000000007</v>
       </c>
     </row>
-    <row r="94" spans="2:14" s="64" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:14" s="64" customFormat="1" ht="78" x14ac:dyDescent="0.25">
       <c r="B94" s="196" t="s">
         <v>464</v>
       </c>
@@ -17733,7 +17742,7 @@
       </c>
       <c r="M94" s="66"/>
     </row>
-    <row r="95" spans="2:14" s="64" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:14" s="64" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="229" t="s">
         <v>466</v>
       </c>
@@ -17771,7 +17780,7 @@
       </c>
       <c r="M95" s="66"/>
     </row>
-    <row r="96" spans="2:14" s="64" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:14" s="64" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="229" t="s">
         <v>467</v>
       </c>
@@ -17813,7 +17822,7 @@
         <v>416307</v>
       </c>
     </row>
-    <row r="97" spans="2:14" s="64" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:14" s="64" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
       <c r="B97" s="217" t="s">
         <v>470</v>
       </c>
@@ -17851,7 +17860,7 @@
       </c>
       <c r="M97" s="66"/>
     </row>
-    <row r="98" spans="2:14" s="64" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:14" s="64" customFormat="1" ht="52.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="217" t="s">
         <v>471</v>
       </c>
@@ -17893,7 +17902,7 @@
         <v>603829.57999999996</v>
       </c>
     </row>
-    <row r="99" spans="2:14" s="64" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" s="64" customFormat="1" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="268" t="s">
         <v>472</v>
       </c>
@@ -17953,22 +17962,22 @@
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="1.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="1.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.5703125" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.5546875" customWidth="1"/>
+    <col min="16" max="16" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>485</v>
       </c>
@@ -17995,7 +18004,7 @@
         <v>14836040.390000001</v>
       </c>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>486</v>
       </c>
@@ -18022,7 +18031,7 @@
         <v>22358475.700000003</v>
       </c>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>487</v>
       </c>
@@ -18064,13 +18073,13 @@
         <v>13139856.07</v>
       </c>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="P13" s="419">
         <f>SUM(P10:P12)</f>
         <v>50334372.160000004</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>114</v>
       </c>
@@ -18094,7 +18103,7 @@
         <v>13649172.42</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>126</v>
       </c>
@@ -18118,7 +18127,7 @@
         <v>23645343.510000002</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>124</v>
       </c>
@@ -18142,7 +18151,7 @@
         <v>13039856.23</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D27">
         <f>D21/$J$21</f>
         <v>9.9999999853470967E-2</v>
@@ -18164,7 +18173,7 @@
         <v>9.9999999853470967E-2</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D28">
         <f>D22/$J$22</f>
         <v>5.0000000190312303E-2</v>
@@ -18186,7 +18195,7 @@
         <v>0.15000000014802067</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D29">
         <f>D23/$J$23</f>
         <v>7.468762330058297E-2</v>
@@ -18208,7 +18217,7 @@
         <v>9.9999999769936121E-2</v>
       </c>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>114</v>
       </c>
@@ -18237,7 +18246,7 @@
         <v>14836040.390000001</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>126</v>
       </c>
@@ -18266,7 +18275,7 @@
         <v>22358475.700000007</v>
       </c>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>124</v>
       </c>
@@ -18295,7 +18304,7 @@
         <v>13139856.07</v>
       </c>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
       <c r="J36" s="420">
         <f>SUM(J33:J35)</f>
         <v>50334372.160000004</v>
